--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK309"/>
+  <dimension ref="A1:BK315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1.81</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
         <v>1.53</v>
@@ -4354,7 +4354,7 @@
         <v>1.31</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>2.06</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU23" t="n">
         <v>1.35</v>
@@ -5369,7 +5369,7 @@
         <v>1.13</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU24" t="n">
         <v>1.26</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT26" t="n">
         <v>0.88</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT27" t="n">
         <v>2.25</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT33" t="n">
         <v>0.88</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8414,7 +8414,7 @@
         <v>1.81</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8820,7 +8820,7 @@
         <v>1.31</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46" t="n">
         <v>0.85</v>
@@ -10038,7 +10038,7 @@
         <v>2.44</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>2.47</v>
@@ -10241,7 +10241,7 @@
         <v>2.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU48" t="n">
         <v>2.4</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT50" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT51" t="n">
         <v>1.53</v>
@@ -11459,7 +11459,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5600000000000001</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT65" t="n">
         <v>0.88</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT67" t="n">
         <v>2.25</v>
@@ -14301,7 +14301,7 @@
         <v>1.13</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14504,7 +14504,7 @@
         <v>2.44</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT71" t="n">
         <v>1.07</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT73" t="n">
         <v>1.67</v>
@@ -15519,7 +15519,7 @@
         <v>0.63</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15722,7 +15722,7 @@
         <v>1.38</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16128,7 +16128,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT79" t="n">
         <v>0.8100000000000001</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1.44</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU82" t="n">
         <v>1.51</v>
@@ -17346,7 +17346,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17749,7 +17749,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5600000000000001</v>
@@ -18361,7 +18361,7 @@
         <v>1.31</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT89" t="n">
         <v>1.67</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19376,7 +19376,7 @@
         <v>2.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19985,7 +19985,7 @@
         <v>0.63</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -20997,7 +20997,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT101" t="n">
         <v>0.88</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT102" t="n">
         <v>1.07</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU103" t="n">
         <v>2.32</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU104" t="n">
         <v>2.4</v>
@@ -21812,7 +21812,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22015,7 +22015,7 @@
         <v>1.56</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5600000000000001</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT118" t="n">
         <v>2</v>
@@ -24651,10 +24651,10 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU119" t="n">
         <v>2.23</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
         <v>0.88</v>
@@ -25057,10 +25057,10 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.1</v>
@@ -25463,10 +25463,10 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -25669,7 +25669,7 @@
         <v>1.56</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT125" t="n">
         <v>0.5600000000000001</v>
@@ -26075,7 +26075,7 @@
         <v>2.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26278,7 +26278,7 @@
         <v>2.4</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -28914,10 +28914,10 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU140" t="n">
         <v>1.09</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT143" t="n">
         <v>0.88</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT144" t="n">
         <v>1.07</v>
@@ -30135,7 +30135,7 @@
         <v>1.71</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30538,10 +30538,10 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30741,7 +30741,7 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
         <v>1.69</v>
@@ -30947,7 +30947,7 @@
         <v>1.13</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT152" t="n">
         <v>1.33</v>
@@ -31759,7 +31759,7 @@
         <v>2.44</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -32165,7 +32165,7 @@
         <v>2.4</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT159" t="n">
         <v>0.8100000000000001</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT161" t="n">
         <v>0.5600000000000001</v>
@@ -33383,7 +33383,7 @@
         <v>2.67</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>2.06</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -34801,7 +34801,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT169" t="n">
         <v>1.33</v>
@@ -35616,7 +35616,7 @@
         <v>0.63</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -35819,7 +35819,7 @@
         <v>1.25</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36019,10 +36019,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36225,7 +36225,7 @@
         <v>1.81</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -37849,7 +37849,7 @@
         <v>1.44</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38049,7 +38049,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT185" t="n">
         <v>0.88</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT187" t="n">
         <v>1.33</v>
@@ -38861,7 +38861,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT189" t="n">
         <v>1.53</v>
@@ -39067,7 +39067,7 @@
         <v>2.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -39267,7 +39267,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT191" t="n">
         <v>1.07</v>
@@ -39470,10 +39470,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU192" t="n">
         <v>1.16</v>
@@ -39676,7 +39676,7 @@
         <v>0.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39879,7 +39879,7 @@
         <v>1.38</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU194" t="n">
         <v>1.62</v>
@@ -40079,7 +40079,7 @@
         <v>1.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT195" t="n">
         <v>1.67</v>
@@ -40282,7 +40282,7 @@
         <v>1.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT196" t="n">
         <v>1.69</v>
@@ -40488,7 +40488,7 @@
         <v>2.67</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU197" t="n">
         <v>2.22</v>
@@ -41097,7 +41097,7 @@
         <v>1.56</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -42312,7 +42312,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT206" t="n">
         <v>0.88</v>
@@ -42718,10 +42718,10 @@
         <v>0.5</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU208" t="n">
         <v>2.09</v>
@@ -43736,7 +43736,7 @@
         <v>1.56</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU213" t="n">
         <v>1.63</v>
@@ -43936,7 +43936,7 @@
         <v>1.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT214" t="n">
         <v>1.67</v>
@@ -44342,10 +44342,10 @@
         <v>1.64</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU216" t="n">
         <v>1.35</v>
@@ -44548,7 +44548,7 @@
         <v>0.63</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -44748,7 +44748,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT218" t="n">
         <v>1.69</v>
@@ -45157,7 +45157,7 @@
         <v>2.67</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU220" t="n">
         <v>2.2</v>
@@ -45357,10 +45357,10 @@
         <v>0.7</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU221" t="n">
         <v>2.3</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT224" t="n">
         <v>1</v>
@@ -47184,7 +47184,7 @@
         <v>0.8</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT230" t="n">
         <v>1</v>
@@ -47593,7 +47593,7 @@
         <v>2.06</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU232" t="n">
         <v>1.84</v>
@@ -47796,7 +47796,7 @@
         <v>1.56</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU233" t="n">
         <v>1.64</v>
@@ -48199,7 +48199,7 @@
         <v>2.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT235" t="n">
         <v>2.25</v>
@@ -48405,7 +48405,7 @@
         <v>1.13</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU236" t="n">
         <v>1.51</v>
@@ -48608,7 +48608,7 @@
         <v>1.38</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU237" t="n">
         <v>1.57</v>
@@ -48808,7 +48808,7 @@
         <v>1.75</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT238" t="n">
         <v>2</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT239" t="n">
         <v>1</v>
@@ -49420,7 +49420,7 @@
         <v>2.44</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU241" t="n">
         <v>2.31</v>
@@ -49620,10 +49620,10 @@
         <v>0.83</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU242" t="n">
         <v>2.23</v>
@@ -50029,7 +50029,7 @@
         <v>1.71</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU244" t="n">
         <v>1.94</v>
@@ -50638,7 +50638,7 @@
         <v>1.44</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU247" t="n">
         <v>1.38</v>
@@ -51247,7 +51247,7 @@
         <v>1.31</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU250" t="n">
         <v>1.35</v>
@@ -51447,7 +51447,7 @@
         <v>1.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT251" t="n">
         <v>1.53</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT252" t="n">
         <v>1.33</v>
@@ -51853,7 +51853,7 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT253" t="n">
         <v>1</v>
@@ -52465,7 +52465,7 @@
         <v>2.06</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU256" t="n">
         <v>1.77</v>
@@ -52665,7 +52665,7 @@
         <v>1</v>
       </c>
       <c r="AS257" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT257" t="n">
         <v>1.07</v>
@@ -52868,7 +52868,7 @@
         <v>1.85</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT258" t="n">
         <v>2</v>
@@ -53480,7 +53480,7 @@
         <v>1.38</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU261" t="n">
         <v>1.61</v>
@@ -53680,10 +53680,10 @@
         <v>0.77</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -54698,7 +54698,7 @@
         <v>0.63</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU267" t="n">
         <v>1.51</v>
@@ -54898,7 +54898,7 @@
         <v>0.92</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT268" t="n">
         <v>0.8100000000000001</v>
@@ -55307,7 +55307,7 @@
         <v>1.44</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU270" t="n">
         <v>1.53</v>
@@ -55913,7 +55913,7 @@
         <v>0.93</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT273" t="n">
         <v>0.8100000000000001</v>
@@ -56119,7 +56119,7 @@
         <v>1.31</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU274" t="n">
         <v>1.29</v>
@@ -56319,7 +56319,7 @@
         <v>1.31</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT275" t="n">
         <v>1.33</v>
@@ -56931,7 +56931,7 @@
         <v>1.44</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU278" t="n">
         <v>1.54</v>
@@ -57334,7 +57334,7 @@
         <v>1.54</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT280" t="n">
         <v>1.53</v>
@@ -57540,7 +57540,7 @@
         <v>1.13</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU281" t="n">
         <v>1.55</v>
@@ -57740,10 +57740,10 @@
         <v>1.29</v>
       </c>
       <c r="AS282" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU282" t="n">
         <v>1.37</v>
@@ -57946,7 +57946,7 @@
         <v>1.25</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU283" t="n">
         <v>1.62</v>
@@ -58146,7 +58146,7 @@
         <v>1.58</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT284" t="n">
         <v>1.67</v>
@@ -58411,7 +58411,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>2782290</v>
+        <v>2782104</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -58427,108 +58427,108 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F286" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I286" t="n">
         <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
       <c r="M286" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N286" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '13', '46', '82', '90']</t>
         </is>
       </c>
       <c r="Q286" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R286" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S286" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U286" t="n">
         <v>2.2</v>
       </c>
-      <c r="U286" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V286" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="W286" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X286" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD286" t="n">
         <v>3.25</v>
       </c>
-      <c r="Y286" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z286" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA286" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB286" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC286" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD286" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AE286" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="AF286" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AG286" t="n">
         <v>11</v>
       </c>
       <c r="AH286" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AI286" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ286" t="n">
-        <v>1.61</v>
+        <v>2.04</v>
       </c>
       <c r="AK286" t="n">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AL286" t="n">
         <v>1.7</v>
@@ -58537,76 +58537,76 @@
         <v>2.05</v>
       </c>
       <c r="AN286" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AO286" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AP286" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ286" t="n">
         <v>2.31</v>
       </c>
-      <c r="AR286" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS286" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AT286" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU286" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AV286" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AW286" t="n">
+      <c r="BA286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BF286" t="n">
         <v>3</v>
       </c>
-      <c r="AX286" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AY286" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ286" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="BA286" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB286" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BC286" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD286" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BE286" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BF286" t="n">
-        <v>4</v>
-      </c>
       <c r="BG286" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BH286" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI286" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ286" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK286" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -58614,7 +58614,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>2782104</v>
+        <v>2782290</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -58630,108 +58630,108 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F287" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="I287" t="n">
         <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>12</v>
+      </c>
+      <c r="R287" t="n">
         <v>3</v>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="n">
+      <c r="S287" t="n">
+        <v>15</v>
+      </c>
+      <c r="T287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V287" t="n">
         <v>5</v>
       </c>
-      <c r="N287" t="n">
-        <v>6</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>['40']</t>
-        </is>
-      </c>
-      <c r="P287" t="inlineStr">
-        <is>
-          <t>['6', '13', '46', '82', '90']</t>
-        </is>
-      </c>
-      <c r="Q287" t="n">
-        <v>7</v>
-      </c>
-      <c r="R287" t="n">
-        <v>6</v>
-      </c>
-      <c r="S287" t="n">
-        <v>13</v>
-      </c>
-      <c r="T287" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U287" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V287" t="n">
-        <v>3.4</v>
-      </c>
       <c r="W287" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X287" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Y287" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z287" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA287" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB287" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC287" t="n">
-        <v>3.2</v>
+        <v>1.57</v>
       </c>
       <c r="AD287" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AE287" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="AF287" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AG287" t="n">
         <v>11</v>
       </c>
       <c r="AH287" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AI287" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AJ287" t="n">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="AK287" t="n">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="AL287" t="n">
         <v>1.7</v>
@@ -58740,76 +58740,76 @@
         <v>2.05</v>
       </c>
       <c r="AN287" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AO287" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="AR287" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.69</v>
+        <v>1</v>
       </c>
       <c r="AU287" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="AV287" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="AW287" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="AX287" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="AY287" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ287" t="n">
-        <v>2.31</v>
+        <v>3.45</v>
       </c>
       <c r="BA287" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="BB287" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="BC287" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="BD287" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="BE287" t="n">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
       <c r="BF287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG287" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BH287" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI287" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ287" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK287" t="n">
         <v>6</v>
-      </c>
-      <c r="BK287" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="288">
@@ -58961,7 +58961,7 @@
         <v>2.4</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AU288" t="n">
         <v>1.73</v>
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2782331</v>
+        <v>2782330</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,59 +59040,59 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>['45+1']</t>
+          <t>['48', '90+5']</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>['54', '61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R289" t="n">
+        <v>8</v>
+      </c>
+      <c r="S289" t="n">
+        <v>9</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V289" t="n">
         <v>5</v>
-      </c>
-      <c r="S289" t="n">
-        <v>11</v>
-      </c>
-      <c r="T289" t="n">
-        <v>4</v>
-      </c>
-      <c r="U289" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V289" t="n">
-        <v>2.88</v>
       </c>
       <c r="W289" t="n">
         <v>1.4</v>
@@ -59101,10 +59101,10 @@
         <v>2.75</v>
       </c>
       <c r="Y289" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z289" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA289" t="n">
         <v>8</v>
@@ -59113,109 +59113,109 @@
         <v>1.08</v>
       </c>
       <c r="AC289" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AD289" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="AE289" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="AF289" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG289" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH289" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI289" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="AJ289" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AK289" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AL289" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AM289" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN289" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AO289" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.33</v>
+        <v>2.31</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AR289" t="n">
-        <v>1.71</v>
+        <v>0.43</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.69</v>
+        <v>0.38</v>
       </c>
       <c r="AU289" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AV289" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AW289" t="n">
-        <v>3.01</v>
+        <v>2.68</v>
       </c>
       <c r="AX289" t="n">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="AY289" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ289" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="BA289" t="n">
         <v>1.38</v>
       </c>
       <c r="BB289" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="BC289" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="BD289" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BE289" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BF289" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG289" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH289" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI289" t="n">
         <v>5</v>
       </c>
       <c r="BJ289" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK289" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2782332</v>
+        <v>2782439</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59243,182 +59243,182 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K290" t="n">
         <v>1</v>
       </c>
       <c r="L290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
         <v>1</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>['23']</t>
-        </is>
-      </c>
       <c r="Q290" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R290" t="n">
+        <v>8</v>
+      </c>
+      <c r="S290" t="n">
+        <v>16</v>
+      </c>
+      <c r="T290" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC290" t="n">
         <v>4</v>
       </c>
-      <c r="S290" t="n">
-        <v>15</v>
-      </c>
-      <c r="T290" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U290" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V290" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W290" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X290" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y290" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z290" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA290" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB290" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC290" t="n">
-        <v>2.65</v>
-      </c>
       <c r="AD290" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE290" t="n">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="AF290" t="n">
         <v>1.07</v>
       </c>
       <c r="AG290" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH290" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AI290" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="AJ290" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AK290" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AL290" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AM290" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="AN290" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="AO290" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AQ290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV290" t="n">
         <v>1.57</v>
       </c>
-      <c r="AR290" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AS290" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AT290" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AU290" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV290" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AW290" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="AX290" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AY290" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ290" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC290" t="n">
         <v>2.12</v>
       </c>
-      <c r="BA290" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB290" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BC290" t="n">
-        <v>2.05</v>
-      </c>
       <c r="BD290" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="BE290" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="BF290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG290" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH290" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ290" t="n">
         <v>11</v>
       </c>
-      <c r="BI290" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ290" t="n">
-        <v>15</v>
-      </c>
       <c r="BK290" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291">
@@ -59426,7 +59426,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>2782334</v>
+        <v>2782338</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -59446,182 +59446,182 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="n">
         <v>1</v>
       </c>
       <c r="K291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
       <c r="N291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '79']</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="Q291" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R291" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S291" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T291" t="n">
-        <v>2.25</v>
+        <v>3.15</v>
       </c>
       <c r="U291" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V291" t="n">
-        <v>4.8</v>
+        <v>3.18</v>
       </c>
       <c r="W291" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X291" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="Y291" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="Z291" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA291" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AB291" t="n">
         <v>1.1</v>
       </c>
       <c r="AC291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV291" t="n">
         <v>1.75</v>
       </c>
-      <c r="AD291" t="n">
+      <c r="AW291" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE291" t="n">
         <v>3.6</v>
       </c>
-      <c r="AE291" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AF291" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG291" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH291" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI291" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AJ291" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK291" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AL291" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM291" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN291" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO291" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP291" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ291" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR291" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS291" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AT291" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AU291" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AV291" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW291" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AX291" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AY291" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ291" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BA291" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BB291" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BC291" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD291" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BE291" t="n">
-        <v>2.95</v>
-      </c>
       <c r="BF291" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG291" t="n">
         <v>5</v>
       </c>
       <c r="BH291" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BI291" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BJ291" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BK291" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
@@ -59629,7 +59629,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>2782338</v>
+        <v>2782331</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -59649,182 +59649,182 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="I292" t="n">
         <v>1</v>
       </c>
       <c r="J292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N292" t="n">
         <v>3</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>['10', '79']</t>
+          <t>['45+1']</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['54', '61']</t>
         </is>
       </c>
       <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>5</v>
+      </c>
+      <c r="S292" t="n">
+        <v>11</v>
+      </c>
+      <c r="T292" t="n">
+        <v>4</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V292" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y292" t="n">
         <v>3</v>
       </c>
-      <c r="R292" t="n">
-        <v>7</v>
-      </c>
-      <c r="S292" t="n">
-        <v>10</v>
-      </c>
-      <c r="T292" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U292" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V292" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="W292" t="n">
+      <c r="Z292" t="n">
         <v>1.36</v>
       </c>
-      <c r="X292" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Y292" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z292" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AA292" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AB292" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC292" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD292" t="n">
         <v>3.25</v>
       </c>
       <c r="AE292" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AF292" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG292" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH292" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI292" t="n">
-        <v>3.8</v>
+        <v>3.37</v>
       </c>
       <c r="AJ292" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK292" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AL292" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AM292" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AN292" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AO292" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP292" t="n">
         <v>1.33</v>
       </c>
-      <c r="AP292" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AQ292" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AR292" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT292" t="n">
         <v>1.69</v>
       </c>
-      <c r="AS292" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AT292" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AU292" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="AV292" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AW292" t="n">
-        <v>3.51</v>
+        <v>3.01</v>
       </c>
       <c r="AX292" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AY292" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ292" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="BA292" t="n">
         <v>1.38</v>
       </c>
       <c r="BB292" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BC292" t="n">
         <v>2.04</v>
       </c>
       <c r="BD292" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BE292" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BF292" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG292" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH292" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI292" t="n">
         <v>5</v>
       </c>
       <c r="BJ292" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BK292" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -59832,7 +59832,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>2782439</v>
+        <v>2782334</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -59852,182 +59852,182 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="I293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" t="n">
         <v>1</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N293" t="n">
         <v>1</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R293" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S293" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T293" t="n">
-        <v>4.64</v>
+        <v>2.25</v>
       </c>
       <c r="U293" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="V293" t="n">
-        <v>2.57</v>
+        <v>4.8</v>
       </c>
       <c r="W293" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="X293" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="Y293" t="n">
-        <v>3.13</v>
+        <v>2.63</v>
       </c>
       <c r="Z293" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AA293" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AB293" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC293" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="AD293" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE293" t="n">
-        <v>1.91</v>
+        <v>4.75</v>
       </c>
       <c r="AF293" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG293" t="n">
-        <v>9.699999999999999</v>
+        <v>13</v>
       </c>
       <c r="AH293" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU293" t="n">
         <v>1.37</v>
       </c>
-      <c r="AI293" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AJ293" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK293" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL293" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM293" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN293" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AO293" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP293" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ293" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AR293" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS293" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AT293" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AU293" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AV293" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AW293" t="n">
-        <v>3</v>
+        <v>2.37</v>
       </c>
       <c r="AX293" t="n">
-        <v>2.5</v>
+        <v>1.47</v>
       </c>
       <c r="AY293" t="n">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="AZ293" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="BA293" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="BB293" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="BC293" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="BD293" t="n">
-        <v>2.75</v>
+        <v>2.28</v>
       </c>
       <c r="BE293" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="BF293" t="n">
         <v>5</v>
       </c>
       <c r="BG293" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH293" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI293" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BJ293" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK293" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294">
@@ -60035,7 +60035,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>2782330</v>
+        <v>2782332</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -60055,182 +60055,182 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>['48', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R294" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S294" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T294" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="U294" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V294" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="W294" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN294" t="n">
         <v>1.4</v>
       </c>
-      <c r="X294" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y294" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z294" t="n">
+      <c r="AO294" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA294" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA294" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB294" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC294" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD294" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE294" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF294" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG294" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH294" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI294" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ294" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK294" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AL294" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM294" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN294" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO294" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP294" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AQ294" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR294" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AS294" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AT294" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AU294" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW294" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AX294" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AY294" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ294" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BA294" t="n">
-        <v>1.38</v>
-      </c>
       <c r="BB294" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="BC294" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BD294" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BE294" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="BF294" t="n">
         <v>4</v>
       </c>
       <c r="BG294" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH294" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI294" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ294" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK294" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295">
@@ -60785,7 +60785,7 @@
         <v>2.43</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT297" t="n">
         <v>2.25</v>
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>2782345</v>
+        <v>2782341</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61273,59 +61273,59 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N300" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['35']</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>['54', '68']</t>
+          <t>['22', '51', '68']</t>
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R300" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S300" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T300" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U300" t="n">
         <v>2.05</v>
       </c>
       <c r="V300" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W300" t="n">
         <v>1.44</v>
@@ -61334,10 +61334,10 @@
         <v>2.63</v>
       </c>
       <c r="Y300" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z300" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA300" t="n">
         <v>10</v>
@@ -61346,109 +61346,109 @@
         <v>1.06</v>
       </c>
       <c r="AC300" t="n">
-        <v>2.82</v>
+        <v>2.04</v>
       </c>
       <c r="AD300" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AE300" t="n">
-        <v>2.65</v>
+        <v>3.77</v>
       </c>
       <c r="AF300" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG300" t="n">
-        <v>9.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="AH300" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AI300" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="AJ300" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="AK300" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AL300" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM300" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN300" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AO300" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="AQ300" t="n">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AR300" t="n">
-        <v>0.87</v>
+        <v>1.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>0.63</v>
+        <v>1.13</v>
       </c>
       <c r="AT300" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU300" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AV300" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AW300" t="n">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="AX300" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="AY300" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="AZ300" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="BA300" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BB300" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="BC300" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="BD300" t="n">
-        <v>2.61</v>
+        <v>2.16</v>
       </c>
       <c r="BE300" t="n">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="BF300" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG300" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH300" t="n">
         <v>8</v>
       </c>
       <c r="BI300" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BJ300" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK300" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2782341</v>
+        <v>2782345</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,59 +61476,59 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N301" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>['35']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>['22', '51', '68']</t>
+          <t>['54', '68']</t>
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R301" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S301" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T301" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U301" t="n">
         <v>2.05</v>
       </c>
       <c r="V301" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W301" t="n">
         <v>1.44</v>
@@ -61537,10 +61537,10 @@
         <v>2.63</v>
       </c>
       <c r="Y301" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z301" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA301" t="n">
         <v>10</v>
@@ -61549,109 +61549,109 @@
         <v>1.06</v>
       </c>
       <c r="AC301" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="AD301" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="AE301" t="n">
-        <v>3.77</v>
+        <v>2.65</v>
       </c>
       <c r="AF301" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG301" t="n">
-        <v>8</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AH301" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP301" t="n">
         <v>1.37</v>
       </c>
-      <c r="AI301" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ301" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AK301" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL301" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM301" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN301" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO301" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP301" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AQ301" t="n">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR301" t="n">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.13</v>
+        <v>0.63</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU301" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB301" t="n">
         <v>1.57</v>
       </c>
-      <c r="AV301" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AW301" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AX301" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AY301" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ301" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BA301" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BB301" t="n">
-        <v>1.46</v>
-      </c>
       <c r="BC301" t="n">
-        <v>1.75</v>
+        <v>1.99</v>
       </c>
       <c r="BD301" t="n">
-        <v>2.16</v>
+        <v>2.61</v>
       </c>
       <c r="BE301" t="n">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="BF301" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG301" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH301" t="n">
         <v>8</v>
       </c>
       <c r="BI301" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ301" t="n">
         <v>12</v>
       </c>
-      <c r="BJ301" t="n">
-        <v>17</v>
-      </c>
       <c r="BK301" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
@@ -63276,6 +63276,1224 @@
       </c>
       <c r="BK309" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2782356</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F310" t="n">
+        <v>32</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>3</v>
+      </c>
+      <c r="M310" t="n">
+        <v>2</v>
+      </c>
+      <c r="N310" t="n">
+        <v>5</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['47', '55', '70']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['51', '67']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>9</v>
+      </c>
+      <c r="R310" t="n">
+        <v>3</v>
+      </c>
+      <c r="S310" t="n">
+        <v>12</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U310" t="n">
+        <v>3</v>
+      </c>
+      <c r="V310" t="n">
+        <v>11</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X310" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2782353</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F311" t="n">
+        <v>32</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>8</v>
+      </c>
+      <c r="R311" t="n">
+        <v>1</v>
+      </c>
+      <c r="S311" t="n">
+        <v>9</v>
+      </c>
+      <c r="T311" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2</v>
+      </c>
+      <c r="V311" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2782351</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1</v>
+      </c>
+      <c r="N312" t="n">
+        <v>2</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>8</v>
+      </c>
+      <c r="R312" t="n">
+        <v>4</v>
+      </c>
+      <c r="S312" t="n">
+        <v>12</v>
+      </c>
+      <c r="T312" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2782355</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>2</v>
+      </c>
+      <c r="L313" t="n">
+        <v>2</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['37', '75']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" t="n">
+        <v>7</v>
+      </c>
+      <c r="S313" t="n">
+        <v>8</v>
+      </c>
+      <c r="T313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2782349</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3</v>
+      </c>
+      <c r="K314" t="n">
+        <v>3</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>4</v>
+      </c>
+      <c r="N314" t="n">
+        <v>4</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['5', '12', '43', '72']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>8</v>
+      </c>
+      <c r="R314" t="n">
+        <v>5</v>
+      </c>
+      <c r="S314" t="n">
+        <v>13</v>
+      </c>
+      <c r="T314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2782358</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>5</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>5</v>
+      </c>
+      <c r="L315" t="n">
+        <v>6</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+      <c r="N315" t="n">
+        <v>7</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['2', '6', '9', '19', '21', '67']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>9</v>
+      </c>
+      <c r="R315" t="n">
+        <v>3</v>
+      </c>
+      <c r="S315" t="n">
+        <v>12</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V315" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X315" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK322"/>
+  <dimension ref="A1:BK326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT2" t="n">
         <v>2.12</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.88</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT8" t="n">
         <v>1.07</v>
@@ -3339,7 +3339,7 @@
         <v>1.71</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.69</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5600000000000001</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.41</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT23" t="n">
         <v>1.38</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT24" t="n">
         <v>0.38</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -7196,7 +7196,7 @@
         <v>2.27</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.56</v>
@@ -8414,7 +8414,7 @@
         <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8617,7 +8617,7 @@
         <v>1.53</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT42" t="n">
         <v>1.12</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT44" t="n">
         <v>1.07</v>
@@ -10647,7 +10647,7 @@
         <v>2.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10850,7 +10850,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT52" t="n">
         <v>1.12</v>
@@ -11459,7 +11459,7 @@
         <v>1.35</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.25</v>
@@ -12271,7 +12271,7 @@
         <v>1.41</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.78</v>
@@ -13692,7 +13692,7 @@
         <v>2.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>0.82</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14707,7 +14707,7 @@
         <v>1.56</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT71" t="n">
         <v>1.07</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT74" t="n">
         <v>0.63</v>
@@ -15925,7 +15925,7 @@
         <v>2.69</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -17749,7 +17749,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5600000000000001</v>
@@ -18155,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -18970,7 +18970,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
         <v>0.63</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20188,7 +20188,7 @@
         <v>2.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT100" t="n">
         <v>0.6899999999999999</v>
@@ -21609,7 +21609,7 @@
         <v>2.27</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU104" t="n">
         <v>2.4</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT109" t="n">
         <v>0.9399999999999999</v>
@@ -23030,7 +23030,7 @@
         <v>1.35</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23433,7 +23433,7 @@
         <v>2.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT113" t="n">
         <v>2.12</v>
@@ -24042,10 +24042,10 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24248,7 +24248,7 @@
         <v>1.29</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT120" t="n">
         <v>0.88</v>
@@ -26278,7 +26278,7 @@
         <v>2.4</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26684,7 +26684,7 @@
         <v>1.24</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT132" t="n">
         <v>0.82</v>
@@ -27699,7 +27699,7 @@
         <v>1.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
         <v>1.12</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>0.5600000000000001</v>
@@ -30338,7 +30338,7 @@
         <v>1.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -30744,7 +30744,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -30944,7 +30944,7 @@
         <v>0.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT150" t="n">
         <v>0.6899999999999999</v>
@@ -31147,7 +31147,7 @@
         <v>1.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT151" t="n">
         <v>1.56</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT152" t="n">
         <v>1.25</v>
@@ -31759,7 +31759,7 @@
         <v>2.44</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -31962,7 +31962,7 @@
         <v>1.35</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32977,7 +32977,7 @@
         <v>1.53</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -34192,7 +34192,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT166" t="n">
         <v>1.38</v>
@@ -35007,7 +35007,7 @@
         <v>2.44</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35207,7 +35207,7 @@
         <v>1.63</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT171" t="n">
         <v>1.56</v>
@@ -35413,7 +35413,7 @@
         <v>2.4</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -35613,7 +35613,7 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT173" t="n">
         <v>0.38</v>
@@ -35819,7 +35819,7 @@
         <v>1.24</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36019,7 +36019,7 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT175" t="n">
         <v>1.25</v>
@@ -37440,7 +37440,7 @@
         <v>0.67</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT182" t="n">
         <v>0.88</v>
@@ -37849,7 +37849,7 @@
         <v>1.53</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38052,7 +38052,7 @@
         <v>1.75</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU185" t="n">
         <v>1.45</v>
@@ -38658,7 +38658,7 @@
         <v>2.44</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT188" t="n">
         <v>2.12</v>
@@ -38861,10 +38861,10 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -39673,7 +39673,7 @@
         <v>0.89</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT193" t="n">
         <v>1.38</v>
@@ -40282,10 +40282,10 @@
         <v>1.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU196" t="n">
         <v>1.53</v>
@@ -40894,7 +40894,7 @@
         <v>2.44</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU199" t="n">
         <v>2.35</v>
@@ -41500,7 +41500,7 @@
         <v>2.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT202" t="n">
         <v>2.12</v>
@@ -41909,7 +41909,7 @@
         <v>1.71</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU204" t="n">
         <v>1.86</v>
@@ -42721,7 +42721,7 @@
         <v>2.13</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU208" t="n">
         <v>2.09</v>
@@ -43124,7 +43124,7 @@
         <v>1.89</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT210" t="n">
         <v>2</v>
@@ -43936,7 +43936,7 @@
         <v>1.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT214" t="n">
         <v>1.56</v>
@@ -44545,7 +44545,7 @@
         <v>0.6</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT217" t="n">
         <v>0.6899999999999999</v>
@@ -44751,7 +44751,7 @@
         <v>1.19</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU218" t="n">
         <v>1.2</v>
@@ -44954,7 +44954,7 @@
         <v>1.24</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU219" t="n">
         <v>1.6</v>
@@ -46372,7 +46372,7 @@
         <v>0.55</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT226" t="n">
         <v>0.5600000000000001</v>
@@ -46781,7 +46781,7 @@
         <v>1.53</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU228" t="n">
         <v>1.37</v>
@@ -47590,10 +47590,10 @@
         <v>0.55</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU232" t="n">
         <v>1.84</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT236" t="n">
         <v>1.38</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT239" t="n">
         <v>1.12</v>
@@ -49214,7 +49214,7 @@
         <v>1.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT240" t="n">
         <v>1.07</v>
@@ -49826,7 +49826,7 @@
         <v>2.69</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU243" t="n">
         <v>2.21</v>
@@ -50029,7 +50029,7 @@
         <v>1.71</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU244" t="n">
         <v>1.94</v>
@@ -50232,7 +50232,7 @@
         <v>2.44</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU245" t="n">
         <v>2.28</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT249" t="n">
         <v>0.82</v>
@@ -51450,7 +51450,7 @@
         <v>2.27</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU251" t="n">
         <v>2.2</v>
@@ -52056,7 +52056,7 @@
         <v>1.09</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT254" t="n">
         <v>1.12</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT256" t="n">
         <v>0.38</v>
@@ -52868,7 +52868,7 @@
         <v>1.85</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT258" t="n">
         <v>2</v>
@@ -53883,7 +53883,7 @@
         <v>1</v>
       </c>
       <c r="AS263" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT263" t="n">
         <v>1.12</v>
@@ -54292,7 +54292,7 @@
         <v>1.41</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -54695,7 +54695,7 @@
         <v>1.38</v>
       </c>
       <c r="AS267" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT267" t="n">
         <v>1.25</v>
@@ -55104,7 +55104,7 @@
         <v>1.88</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU269" t="n">
         <v>1.48</v>
@@ -55913,7 +55913,7 @@
         <v>0.93</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT273" t="n">
         <v>0.82</v>
@@ -57337,7 +57337,7 @@
         <v>2.13</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU280" t="n">
         <v>1.98</v>
@@ -57537,7 +57537,7 @@
         <v>1.36</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT281" t="n">
         <v>1.25</v>
@@ -58555,7 +58555,7 @@
         <v>1.29</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU286" t="n">
         <v>1.59</v>
@@ -59567,7 +59567,7 @@
         <v>1.69</v>
       </c>
       <c r="AS291" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT291" t="n">
         <v>1.56</v>
@@ -59773,7 +59773,7 @@
         <v>1.75</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU292" t="n">
         <v>1.51</v>
@@ -59976,7 +59976,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU293" t="n">
         <v>1.37</v>
@@ -60179,7 +60179,7 @@
         <v>1.56</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60379,7 +60379,7 @@
         <v>1.93</v>
       </c>
       <c r="AS295" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT295" t="n">
         <v>2</v>
@@ -60991,7 +60991,7 @@
         <v>1.88</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU298" t="n">
         <v>1.52</v>
@@ -61394,7 +61394,7 @@
         <v>1.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT300" t="n">
         <v>1.25</v>
@@ -61597,7 +61597,7 @@
         <v>0.87</v>
       </c>
       <c r="AS301" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AT301" t="n">
         <v>0.9399999999999999</v>
@@ -62003,10 +62003,10 @@
         <v>0.73</v>
       </c>
       <c r="AS303" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU303" t="n">
         <v>1.71</v>
@@ -62615,7 +62615,7 @@
         <v>1.41</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU306" t="n">
         <v>1.32</v>
@@ -63627,7 +63627,7 @@
         <v>0.6</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT311" t="n">
         <v>0.63</v>
@@ -64239,7 +64239,7 @@
         <v>1.19</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU314" t="n">
         <v>1.26</v>
@@ -65915,6 +65915,818 @@
       </c>
       <c r="BK322" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2782367</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45043.65625</v>
+      </c>
+      <c r="F323" t="n">
+        <v>33</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>6</v>
+      </c>
+      <c r="R323" t="n">
+        <v>4</v>
+      </c>
+      <c r="S323" t="n">
+        <v>10</v>
+      </c>
+      <c r="T323" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V323" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X323" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2782359</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45043.65625</v>
+      </c>
+      <c r="F324" t="n">
+        <v>33</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="n">
+        <v>4</v>
+      </c>
+      <c r="N324" t="n">
+        <v>5</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['28', '72', '75', '81']</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>3</v>
+      </c>
+      <c r="R324" t="n">
+        <v>14</v>
+      </c>
+      <c r="S324" t="n">
+        <v>17</v>
+      </c>
+      <c r="T324" t="n">
+        <v>5</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2782362</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45043.67708333334</v>
+      </c>
+      <c r="F325" t="n">
+        <v>33</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>2</v>
+      </c>
+      <c r="K325" t="n">
+        <v>2</v>
+      </c>
+      <c r="L325" t="n">
+        <v>2</v>
+      </c>
+      <c r="M325" t="n">
+        <v>2</v>
+      </c>
+      <c r="N325" t="n">
+        <v>4</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['56', '79']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>['7', '44']</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>6</v>
+      </c>
+      <c r="R325" t="n">
+        <v>8</v>
+      </c>
+      <c r="S325" t="n">
+        <v>14</v>
+      </c>
+      <c r="T325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V325" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X325" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2782373</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45045.35416666666</v>
+      </c>
+      <c r="F326" t="n">
+        <v>34</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>3</v>
+      </c>
+      <c r="J326" t="n">
+        <v>2</v>
+      </c>
+      <c r="K326" t="n">
+        <v>5</v>
+      </c>
+      <c r="L326" t="n">
+        <v>4</v>
+      </c>
+      <c r="M326" t="n">
+        <v>3</v>
+      </c>
+      <c r="N326" t="n">
+        <v>7</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['15', '20', '30', '66']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['9', '35', '72']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T326" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V326" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X326" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK326"/>
+  <dimension ref="A1:BK328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.24</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT14" t="n">
         <v>1.76</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT18" t="n">
         <v>1.5</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5369,7 +5369,7 @@
         <v>1.06</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU24" t="n">
         <v>1.26</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT36" t="n">
         <v>0.63</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5600000000000001</v>
@@ -9835,7 +9835,7 @@
         <v>1.19</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU46" t="n">
         <v>0.85</v>
@@ -10241,7 +10241,7 @@
         <v>2.69</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU48" t="n">
         <v>2.4</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5600000000000001</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT60" t="n">
         <v>0.82</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT67" t="n">
         <v>2.12</v>
@@ -15722,7 +15722,7 @@
         <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16331,7 +16331,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -17143,7 +17143,7 @@
         <v>1.35</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU82" t="n">
         <v>1.51</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT83" t="n">
         <v>1.25</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT89" t="n">
         <v>1.56</v>
@@ -19173,7 +19173,7 @@
         <v>1.53</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -20591,10 +20591,10 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20797,7 +20797,7 @@
         <v>1.41</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT102" t="n">
         <v>1.07</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT122" t="n">
         <v>1.07</v>
@@ -25463,10 +25463,10 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -26075,7 +26075,7 @@
         <v>2.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT146" t="n">
         <v>1.38</v>
@@ -30538,7 +30538,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
         <v>1.25</v>
@@ -30947,7 +30947,7 @@
         <v>1.06</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -32165,7 +32165,7 @@
         <v>2.4</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -33989,7 +33989,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT165" t="n">
         <v>2.12</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT168" t="n">
         <v>1.12</v>
@@ -35616,7 +35616,7 @@
         <v>0.59</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -36225,7 +36225,7 @@
         <v>1.88</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT183" t="n">
         <v>1.12</v>
@@ -38049,7 +38049,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT185" t="n">
         <v>1</v>
@@ -39473,7 +39473,7 @@
         <v>1.19</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU192" t="n">
         <v>1.16</v>
@@ -40488,7 +40488,7 @@
         <v>2.69</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU197" t="n">
         <v>2.22</v>
@@ -41906,7 +41906,7 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT204" t="n">
         <v>1</v>
@@ -42312,7 +42312,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT206" t="n">
         <v>0.88</v>
@@ -43736,7 +43736,7 @@
         <v>1.56</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU213" t="n">
         <v>1.63</v>
@@ -44548,7 +44548,7 @@
         <v>0.59</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT224" t="n">
         <v>0.9399999999999999</v>
@@ -46169,7 +46169,7 @@
         <v>1.27</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT225" t="n">
         <v>1.25</v>
@@ -47796,7 +47796,7 @@
         <v>1.56</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU233" t="n">
         <v>1.64</v>
@@ -48608,7 +48608,7 @@
         <v>1.29</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU237" t="n">
         <v>1.57</v>
@@ -49623,7 +49623,7 @@
         <v>2.27</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU242" t="n">
         <v>2.23</v>
@@ -50026,7 +50026,7 @@
         <v>0.5</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT244" t="n">
         <v>0.75</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT252" t="n">
         <v>1.25</v>
@@ -52465,7 +52465,7 @@
         <v>2</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU256" t="n">
         <v>1.77</v>
@@ -53683,7 +53683,7 @@
         <v>2.13</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT264" t="n">
         <v>0.9399999999999999</v>
@@ -54898,7 +54898,7 @@
         <v>0.92</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT268" t="n">
         <v>0.82</v>
@@ -56119,7 +56119,7 @@
         <v>1.41</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU274" t="n">
         <v>1.29</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT277" t="n">
         <v>1.12</v>
@@ -57946,7 +57946,7 @@
         <v>1.24</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU283" t="n">
         <v>1.62</v>
@@ -59164,7 +59164,7 @@
         <v>1.88</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU289" t="n">
         <v>1.55</v>
@@ -59770,7 +59770,7 @@
         <v>1.71</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT292" t="n">
         <v>1.76</v>
@@ -63427,7 +63427,7 @@
         <v>2.27</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU310" t="n">
         <v>2.17</v>
@@ -63830,7 +63830,7 @@
         <v>1.4</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT312" t="n">
         <v>1.38</v>
@@ -64036,7 +64036,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT313" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU313" t="n">
         <v>1.39</v>
@@ -66588,13 +66588,13 @@
         </is>
       </c>
       <c r="Q326" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R326" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S326" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T326" t="n">
         <v>3.51</v>
@@ -66711,22 +66711,428 @@
         <v>3.75</v>
       </c>
       <c r="BF326" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG326" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH326" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI326" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ326" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK326" t="n">
-        <v>-1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2782371</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F327" t="n">
+        <v>34</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>2</v>
+      </c>
+      <c r="M327" t="n">
+        <v>1</v>
+      </c>
+      <c r="N327" t="n">
+        <v>3</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['82', '90+4']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>6</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" t="n">
+        <v>6</v>
+      </c>
+      <c r="T327" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V327" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X327" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2782372</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F328" t="n">
+        <v>34</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>4</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>4</v>
+      </c>
+      <c r="L328" t="n">
+        <v>6</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>6</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['6', '13', '26', '39', '48', '66']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>2</v>
+      </c>
+      <c r="R328" t="n">
+        <v>5</v>
+      </c>
+      <c r="S328" t="n">
+        <v>7</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V328" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X328" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK328"/>
+  <dimension ref="A1:BK334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT3" t="n">
         <v>1.12</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT6" t="n">
         <v>0.35</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT10" t="n">
         <v>1.56</v>
@@ -2730,7 +2730,7 @@
         <v>1.29</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.59</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.35</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT21" t="n">
         <v>0.9399999999999999</v>
@@ -5166,7 +5166,7 @@
         <v>1.41</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU23" t="n">
         <v>1.35</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
         <v>1.12</v>
@@ -5775,7 +5775,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT27" t="n">
         <v>2.12</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT31" t="n">
         <v>1.12</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>1.82</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8008,7 +8008,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -8820,7 +8820,7 @@
         <v>1.41</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT43" t="n">
         <v>1.56</v>
@@ -9632,7 +9632,7 @@
         <v>1.24</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT46" t="n">
         <v>0.65</v>
@@ -10038,7 +10038,7 @@
         <v>2.44</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU47" t="n">
         <v>2.47</v>
@@ -10444,7 +10444,7 @@
         <v>1.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT50" t="n">
         <v>1.76</v>
@@ -11256,7 +11256,7 @@
         <v>1.53</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT56" t="n">
         <v>0.9399999999999999</v>
@@ -12068,7 +12068,7 @@
         <v>1.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU57" t="n">
         <v>1.94</v>
@@ -12474,7 +12474,7 @@
         <v>1.88</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT61" t="n">
         <v>2.12</v>
@@ -13286,7 +13286,7 @@
         <v>1.88</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU63" t="n">
         <v>1.22</v>
@@ -13489,7 +13489,7 @@
         <v>1.53</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>2.44</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT70" t="n">
         <v>1.76</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT72" t="n">
         <v>1.12</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15519,7 +15519,7 @@
         <v>0.59</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16128,7 +16128,7 @@
         <v>1.24</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT79" t="n">
         <v>0.82</v>
@@ -16737,7 +16737,7 @@
         <v>2.69</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU80" t="n">
         <v>2.39</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT81" t="n">
         <v>1.12</v>
@@ -17346,7 +17346,7 @@
         <v>1.8</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17752,7 +17752,7 @@
         <v>1.41</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -18361,7 +18361,7 @@
         <v>1.41</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT97" t="n">
         <v>1.76</v>
@@ -20388,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20997,10 +20997,10 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU101" t="n">
         <v>0.9399999999999999</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU103" t="n">
         <v>2.32</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT104" t="n">
         <v>0.75</v>
@@ -21809,10 +21809,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22012,10 +22012,10 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22218,7 +22218,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -24451,7 +24451,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT118" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -24651,10 +24651,10 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU119" t="n">
         <v>2.23</v>
@@ -24857,7 +24857,7 @@
         <v>1.41</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25057,10 +25057,10 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.1</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25869,10 +25869,10 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26275,7 +26275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT127" t="n">
         <v>0.75</v>
@@ -28914,10 +28914,10 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU140" t="n">
         <v>1.09</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU141" t="n">
         <v>1.99</v>
@@ -29523,10 +29523,10 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU143" t="n">
         <v>2.44</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT144" t="n">
         <v>1.07</v>
@@ -30135,7 +30135,7 @@
         <v>1.8</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -30541,7 +30541,7 @@
         <v>1.82</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -32162,7 +32162,7 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT156" t="n">
         <v>0.35</v>
@@ -32368,7 +32368,7 @@
         <v>1.24</v>
       </c>
       <c r="AT157" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT159" t="n">
         <v>0.82</v>
@@ -33177,10 +33177,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33383,7 +33383,7 @@
         <v>2.69</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU163" t="n">
         <v>1.79</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT164" t="n">
         <v>0.9399999999999999</v>
@@ -34195,7 +34195,7 @@
         <v>2</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -35410,7 +35410,7 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -36022,7 +36022,7 @@
         <v>1.41</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36428,7 +36428,7 @@
         <v>1.35</v>
       </c>
       <c r="AT177" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT178" t="n">
         <v>1.07</v>
@@ -36834,7 +36834,7 @@
         <v>1.88</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37034,10 +37034,10 @@
         <v>2.13</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT180" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU180" t="n">
         <v>1.98</v>
@@ -37443,7 +37443,7 @@
         <v>1.06</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT187" t="n">
         <v>1.25</v>
@@ -39067,7 +39067,7 @@
         <v>2.69</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -39267,7 +39267,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT191" t="n">
         <v>1.07</v>
@@ -39470,7 +39470,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT192" t="n">
         <v>0.35</v>
@@ -39676,7 +39676,7 @@
         <v>0.59</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39879,7 +39879,7 @@
         <v>1.29</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU194" t="n">
         <v>1.62</v>
@@ -41094,10 +41094,10 @@
         <v>1.5</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT205" t="n">
         <v>0.9399999999999999</v>
@@ -42315,7 +42315,7 @@
         <v>1.82</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -42718,7 +42718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT208" t="n">
         <v>0.75</v>
@@ -42924,7 +42924,7 @@
         <v>1.41</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU209" t="n">
         <v>1.47</v>
@@ -43127,7 +43127,7 @@
         <v>2</v>
       </c>
       <c r="AT210" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU210" t="n">
         <v>1.9</v>
@@ -43327,10 +43327,10 @@
         <v>0.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU211" t="n">
         <v>1.86</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT213" t="n">
         <v>0.35</v>
@@ -44345,7 +44345,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU216" t="n">
         <v>1.35</v>
@@ -44748,7 +44748,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT218" t="n">
         <v>1.76</v>
@@ -45157,7 +45157,7 @@
         <v>2.69</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU220" t="n">
         <v>2.2</v>
@@ -45357,10 +45357,10 @@
         <v>0.7</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU221" t="n">
         <v>2.3</v>
@@ -45563,7 +45563,7 @@
         <v>2.44</v>
       </c>
       <c r="AT222" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU222" t="n">
         <v>2.42</v>
@@ -46375,7 +46375,7 @@
         <v>1.06</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46578,7 +46578,7 @@
         <v>1.41</v>
       </c>
       <c r="AT227" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU227" t="n">
         <v>1.42</v>
@@ -46984,7 +46984,7 @@
         <v>1.35</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU229" t="n">
         <v>1.52</v>
@@ -47184,7 +47184,7 @@
         <v>0.8</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT230" t="n">
         <v>1.12</v>
@@ -47387,7 +47387,7 @@
         <v>1.09</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT231" t="n">
         <v>0.82</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT233" t="n">
         <v>0.65</v>
@@ -47999,7 +47999,7 @@
         <v>1.24</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU234" t="n">
         <v>1.63</v>
@@ -48405,7 +48405,7 @@
         <v>1.06</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU236" t="n">
         <v>1.51</v>
@@ -48808,10 +48808,10 @@
         <v>1.75</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT238" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU238" t="n">
         <v>1.22</v>
@@ -49420,7 +49420,7 @@
         <v>2.44</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU241" t="n">
         <v>2.31</v>
@@ -49620,7 +49620,7 @@
         <v>0.83</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT242" t="n">
         <v>0.65</v>
@@ -50638,7 +50638,7 @@
         <v>1.53</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU247" t="n">
         <v>1.38</v>
@@ -50841,7 +50841,7 @@
         <v>1.35</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU248" t="n">
         <v>1.52</v>
@@ -51247,7 +51247,7 @@
         <v>1.41</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU250" t="n">
         <v>1.35</v>
@@ -51447,7 +51447,7 @@
         <v>1.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT251" t="n">
         <v>1.5</v>
@@ -51853,7 +51853,7 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT253" t="n">
         <v>1.12</v>
@@ -52871,7 +52871,7 @@
         <v>1.41</v>
       </c>
       <c r="AT258" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU258" t="n">
         <v>1.37</v>
@@ -53071,7 +53071,7 @@
         <v>2.38</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT259" t="n">
         <v>2.12</v>
@@ -53274,10 +53274,10 @@
         <v>0.92</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU260" t="n">
         <v>1.8</v>
@@ -53480,7 +53480,7 @@
         <v>1.29</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU261" t="n">
         <v>1.61</v>
@@ -53680,7 +53680,7 @@
         <v>0.77</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT262" t="n">
         <v>0.65</v>
@@ -54495,7 +54495,7 @@
         <v>1.53</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU266" t="n">
         <v>1.36</v>
@@ -54698,7 +54698,7 @@
         <v>0.59</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU267" t="n">
         <v>1.51</v>
@@ -55307,7 +55307,7 @@
         <v>1.35</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU270" t="n">
         <v>1.53</v>
@@ -56319,7 +56319,7 @@
         <v>1.31</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT275" t="n">
         <v>1.25</v>
@@ -56525,7 +56525,7 @@
         <v>2.44</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU276" t="n">
         <v>2.34</v>
@@ -56931,7 +56931,7 @@
         <v>1.35</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU278" t="n">
         <v>1.54</v>
@@ -57134,7 +57134,7 @@
         <v>1.29</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU279" t="n">
         <v>1.62</v>
@@ -57334,7 +57334,7 @@
         <v>1.54</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT280" t="n">
         <v>1.5</v>
@@ -57540,7 +57540,7 @@
         <v>1.06</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU281" t="n">
         <v>1.55</v>
@@ -57743,7 +57743,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU282" t="n">
         <v>1.37</v>
@@ -58146,7 +58146,7 @@
         <v>1.58</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT284" t="n">
         <v>1.56</v>
@@ -58755,7 +58755,7 @@
         <v>1.14</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT287" t="n">
         <v>1.12</v>
@@ -58958,10 +58958,10 @@
         <v>0.64</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU288" t="n">
         <v>1.73</v>
@@ -60176,7 +60176,7 @@
         <v>0.46</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT294" t="n">
         <v>0.75</v>
@@ -60382,7 +60382,7 @@
         <v>0.59</v>
       </c>
       <c r="AT295" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU295" t="n">
         <v>1.55</v>
@@ -60785,7 +60785,7 @@
         <v>2.43</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT297" t="n">
         <v>2.12</v>
@@ -63021,7 +63021,7 @@
         <v>2.44</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU308" t="n">
         <v>2.29</v>
@@ -63221,10 +63221,10 @@
         <v>0.6</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU309" t="n">
         <v>1.63</v>
@@ -63424,7 +63424,7 @@
         <v>0.4</v>
       </c>
       <c r="AS310" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT310" t="n">
         <v>0.35</v>
@@ -63630,7 +63630,7 @@
         <v>1.41</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU311" t="n">
         <v>1.35</v>
@@ -63833,7 +63833,7 @@
         <v>1.82</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU312" t="n">
         <v>1.52</v>
@@ -64236,7 +64236,7 @@
         <v>0.64</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT314" t="n">
         <v>0.75</v>
@@ -64439,10 +64439,10 @@
         <v>1.33</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU315" t="n">
         <v>1.97</v>
@@ -67133,6 +67133,1224 @@
       </c>
       <c r="BK328" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2782377</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F329" t="n">
+        <v>34</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>1</v>
+      </c>
+      <c r="R329" t="n">
+        <v>4</v>
+      </c>
+      <c r="S329" t="n">
+        <v>5</v>
+      </c>
+      <c r="T329" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V329" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X329" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2782378</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F330" t="n">
+        <v>34</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>3</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+      <c r="N330" t="n">
+        <v>4</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>['54', '79', '81']</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>11</v>
+      </c>
+      <c r="R330" t="n">
+        <v>2</v>
+      </c>
+      <c r="S330" t="n">
+        <v>13</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V330" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X330" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2782374</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F331" t="n">
+        <v>34</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>2</v>
+      </c>
+      <c r="K331" t="n">
+        <v>3</v>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="n">
+        <v>2</v>
+      </c>
+      <c r="N331" t="n">
+        <v>3</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['3', '36']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R331" t="n">
+        <v>5</v>
+      </c>
+      <c r="S331" t="n">
+        <v>7</v>
+      </c>
+      <c r="T331" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V331" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X331" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2782369</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>2</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K332" t="n">
+        <v>3</v>
+      </c>
+      <c r="L332" t="n">
+        <v>4</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N332" t="n">
+        <v>5</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['20', '24', '63', '90+1']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>2</v>
+      </c>
+      <c r="R332" t="n">
+        <v>6</v>
+      </c>
+      <c r="S332" t="n">
+        <v>8</v>
+      </c>
+      <c r="T332" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2782376</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45046.52083333334</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>3</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>4</v>
+      </c>
+      <c r="L333" t="n">
+        <v>4</v>
+      </c>
+      <c r="M333" t="n">
+        <v>3</v>
+      </c>
+      <c r="N333" t="n">
+        <v>7</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['3', '5', '15', '90+4']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['39', '77', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>4</v>
+      </c>
+      <c r="R333" t="n">
+        <v>2</v>
+      </c>
+      <c r="S333" t="n">
+        <v>6</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V333" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X333" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2782375</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45047.66666666666</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>2</v>
+      </c>
+      <c r="J334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K334" t="n">
+        <v>3</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>2</v>
+      </c>
+      <c r="N334" t="n">
+        <v>4</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['22', '33']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['15', '54']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>2</v>
+      </c>
+      <c r="R334" t="n">
+        <v>9</v>
+      </c>
+      <c r="S334" t="n">
+        <v>11</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V334" t="n">
+        <v>4</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X334" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK334"/>
+  <dimension ref="A1:BK337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.06</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT13" t="n">
         <v>0.82</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1.53</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.41</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT21" t="n">
         <v>0.9399999999999999</v>
@@ -6181,7 +6181,7 @@
         <v>1.24</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT35" t="n">
         <v>0.9399999999999999</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8414,7 +8414,7 @@
         <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -9429,7 +9429,7 @@
         <v>0.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT47" t="n">
         <v>1.29</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT48" t="n">
         <v>0.35</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT50" t="n">
         <v>1.76</v>
@@ -11459,7 +11459,7 @@
         <v>1.35</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -13083,7 +13083,7 @@
         <v>1.41</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -14301,7 +14301,7 @@
         <v>1.06</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT69" t="n">
         <v>1.18</v>
@@ -14910,7 +14910,7 @@
         <v>1.41</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT80" t="n">
         <v>0.82</v>
@@ -17549,7 +17549,7 @@
         <v>1.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU84" t="n">
         <v>1.39</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT86" t="n">
         <v>1.12</v>
@@ -19579,7 +19579,7 @@
         <v>1.88</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -19985,7 +19985,7 @@
         <v>0.59</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT98" t="n">
         <v>2.06</v>
@@ -21203,7 +21203,7 @@
         <v>1.82</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.5</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU104" t="n">
         <v>2.4</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -23639,7 +23639,7 @@
         <v>1.24</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -25263,7 +25263,7 @@
         <v>1.8</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>2.02</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT125" t="n">
         <v>0.53</v>
@@ -26072,7 +26072,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT126" t="n">
         <v>0.35</v>
@@ -26278,7 +26278,7 @@
         <v>2.44</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26478,10 +26478,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU128" t="n">
         <v>2.22</v>
@@ -28508,7 +28508,7 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT138" t="n">
         <v>1.12</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT143" t="n">
         <v>0.82</v>
@@ -29729,7 +29729,7 @@
         <v>2.19</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -31353,7 +31353,7 @@
         <v>1.41</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31756,10 +31756,10 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT159" t="n">
         <v>0.82</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT162" t="n">
         <v>0.65</v>
@@ -34398,7 +34398,7 @@
         <v>1.41</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -34804,7 +34804,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU169" t="n">
         <v>1.35</v>
@@ -35004,7 +35004,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT170" t="n">
         <v>1.76</v>
@@ -35819,7 +35819,7 @@
         <v>1.24</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36631,7 +36631,7 @@
         <v>1.47</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.71</v>
@@ -37849,7 +37849,7 @@
         <v>1.53</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38458,7 +38458,7 @@
         <v>2.19</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU187" t="n">
         <v>2.08</v>
@@ -39064,7 +39064,7 @@
         <v>1.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT190" t="n">
         <v>1.18</v>
@@ -39267,10 +39267,10 @@
         <v>1.1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU191" t="n">
         <v>2.37</v>
@@ -40485,7 +40485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT197" t="n">
         <v>0.65</v>
@@ -40891,7 +40891,7 @@
         <v>1.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT199" t="n">
         <v>1.5</v>
@@ -41300,7 +41300,7 @@
         <v>1.35</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -42721,7 +42721,7 @@
         <v>2.19</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU208" t="n">
         <v>2.09</v>
@@ -43533,7 +43533,7 @@
         <v>1.29</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU212" t="n">
         <v>1.6</v>
@@ -44139,7 +44139,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT215" t="n">
         <v>1.12</v>
@@ -45154,7 +45154,7 @@
         <v>1.1</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT220" t="n">
         <v>1.29</v>
@@ -45357,7 +45357,7 @@
         <v>0.7</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT221" t="n">
         <v>0.65</v>
@@ -45560,7 +45560,7 @@
         <v>1.7</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT222" t="n">
         <v>2.06</v>
@@ -46172,7 +46172,7 @@
         <v>1.8</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU225" t="n">
         <v>1.92</v>
@@ -47593,7 +47593,7 @@
         <v>2</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU232" t="n">
         <v>1.84</v>
@@ -49217,7 +49217,7 @@
         <v>2</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU240" t="n">
         <v>1.82</v>
@@ -49417,7 +49417,7 @@
         <v>0.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT241" t="n">
         <v>0.65</v>
@@ -49620,7 +49620,7 @@
         <v>0.83</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT242" t="n">
         <v>0.65</v>
@@ -49823,7 +49823,7 @@
         <v>1.64</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT243" t="n">
         <v>1.76</v>
@@ -50029,7 +50029,7 @@
         <v>1.8</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU244" t="n">
         <v>1.94</v>
@@ -50229,7 +50229,7 @@
         <v>0.67</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT245" t="n">
         <v>1</v>
@@ -51447,7 +51447,7 @@
         <v>1.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT251" t="n">
         <v>1.5</v>
@@ -51653,7 +51653,7 @@
         <v>1.82</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU252" t="n">
         <v>1.49</v>
@@ -52668,7 +52668,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU257" t="n">
         <v>1.34</v>
@@ -55507,7 +55507,7 @@
         <v>0.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT271" t="n">
         <v>0.9399999999999999</v>
@@ -55710,7 +55710,7 @@
         <v>0.92</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT272" t="n">
         <v>1.12</v>
@@ -56322,7 +56322,7 @@
         <v>1.29</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU275" t="n">
         <v>1.21</v>
@@ -56522,7 +56522,7 @@
         <v>0.64</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT276" t="n">
         <v>0.53</v>
@@ -59367,7 +59367,7 @@
         <v>1.53</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU290" t="n">
         <v>1.43</v>
@@ -60179,7 +60179,7 @@
         <v>1.47</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60785,7 +60785,7 @@
         <v>2.43</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT297" t="n">
         <v>2.12</v>
@@ -61397,7 +61397,7 @@
         <v>1.06</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -62206,7 +62206,7 @@
         <v>0.87</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT304" t="n">
         <v>0.82</v>
@@ -63018,7 +63018,7 @@
         <v>0.87</v>
       </c>
       <c r="AS308" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT308" t="n">
         <v>0.82</v>
@@ -63424,7 +63424,7 @@
         <v>0.4</v>
       </c>
       <c r="AS310" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT310" t="n">
         <v>0.35</v>
@@ -64239,7 +64239,7 @@
         <v>1.29</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU314" t="n">
         <v>1.26</v>
@@ -64848,7 +64848,7 @@
         <v>1.88</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU317" t="n">
         <v>1.52</v>
@@ -65860,7 +65860,7 @@
         <v>2.25</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT322" t="n">
         <v>2.12</v>
@@ -66675,7 +66675,7 @@
         <v>1.41</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU326" t="n">
         <v>1.34</v>
@@ -68093,7 +68093,7 @@
         <v>1.25</v>
       </c>
       <c r="AS333" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT333" t="n">
         <v>1.18</v>
@@ -68351,6 +68351,615 @@
       </c>
       <c r="BK334" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2782370</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45048.66666666666</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>3</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>3</v>
+      </c>
+      <c r="L335" t="n">
+        <v>3</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+      <c r="N335" t="n">
+        <v>4</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['18', '31', '34']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>7</v>
+      </c>
+      <c r="R335" t="n">
+        <v>2</v>
+      </c>
+      <c r="S335" t="n">
+        <v>9</v>
+      </c>
+      <c r="T335" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V335" t="n">
+        <v>5</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X335" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2782315</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45049.66666666666</v>
+      </c>
+      <c r="F336" t="n">
+        <v>28</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>1</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>7</v>
+      </c>
+      <c r="R336" t="n">
+        <v>5</v>
+      </c>
+      <c r="S336" t="n">
+        <v>12</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V336" t="n">
+        <v>7</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X336" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2782316</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45049.66666666666</v>
+      </c>
+      <c r="F337" t="n">
+        <v>28</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>3</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>3</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['50', '70', '85']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>6</v>
+      </c>
+      <c r="R337" t="n">
+        <v>3</v>
+      </c>
+      <c r="S337" t="n">
+        <v>9</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U337" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V337" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X337" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK337"/>
+  <dimension ref="A1:BK338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT14" t="n">
         <v>1.76</v>
@@ -4151,7 +4151,7 @@
         <v>1.82</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0.59</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT37" t="n">
         <v>0.53</v>
@@ -10850,7 +10850,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT60" t="n">
         <v>0.82</v>
@@ -15925,7 +15925,7 @@
         <v>2.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
         <v>1.18</v>
@@ -18158,7 +18158,7 @@
         <v>1.06</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT99" t="n">
         <v>0.35</v>
@@ -23030,7 +23030,7 @@
         <v>1.35</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>1.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT146" t="n">
         <v>1.29</v>
@@ -30338,7 +30338,7 @@
         <v>1.47</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -32977,7 +32977,7 @@
         <v>1.53</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33989,7 +33989,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT165" t="n">
         <v>2.12</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT183" t="n">
         <v>1.12</v>
@@ -38864,7 +38864,7 @@
         <v>1.41</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -40894,7 +40894,7 @@
         <v>2.47</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU199" t="n">
         <v>2.35</v>
@@ -41906,7 +41906,7 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT204" t="n">
         <v>1</v>
@@ -44954,7 +44954,7 @@
         <v>1.24</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU219" t="n">
         <v>1.6</v>
@@ -46169,7 +46169,7 @@
         <v>1.27</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT225" t="n">
         <v>1.18</v>
@@ -50026,7 +50026,7 @@
         <v>0.5</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT244" t="n">
         <v>0.71</v>
@@ -51450,7 +51450,7 @@
         <v>2.35</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU251" t="n">
         <v>2.2</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT264" t="n">
         <v>0.9399999999999999</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT277" t="n">
         <v>1.12</v>
@@ -57337,7 +57337,7 @@
         <v>2.19</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU280" t="n">
         <v>1.98</v>
@@ -62615,7 +62615,7 @@
         <v>1.41</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU306" t="n">
         <v>1.32</v>
@@ -66472,7 +66472,7 @@
         <v>2</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU325" t="n">
         <v>1.74</v>
@@ -67078,7 +67078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT328" t="n">
         <v>0.65</v>
@@ -68960,6 +68960,209 @@
       </c>
       <c r="BK337" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2782314</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45050.66666666666</v>
+      </c>
+      <c r="F338" t="n">
+        <v>28</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>8</v>
+      </c>
+      <c r="R338" t="n">
+        <v>6</v>
+      </c>
+      <c r="S338" t="n">
+        <v>14</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V338" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X338" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK338"/>
+  <dimension ref="A1:BK343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT7" t="n">
         <v>0.82</v>
@@ -2121,7 +2121,7 @@
         <v>1.06</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>0.59</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT17" t="n">
         <v>1.18</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT22" t="n">
         <v>0.65</v>
@@ -5166,7 +5166,7 @@
         <v>1.41</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU23" t="n">
         <v>1.35</v>
@@ -5572,7 +5572,7 @@
         <v>1.47</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU25" t="n">
         <v>1.23</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT27" t="n">
         <v>2.12</v>
@@ -6181,7 +6181,7 @@
         <v>1.24</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" t="n">
         <v>2.53</v>
@@ -8008,7 +8008,7 @@
         <v>1.88</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT40" t="n">
         <v>1.76</v>
@@ -9023,7 +9023,7 @@
         <v>1.41</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9429,7 +9429,7 @@
         <v>0.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT46" t="n">
         <v>0.65</v>
@@ -10038,7 +10038,7 @@
         <v>2.47</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU47" t="n">
         <v>2.47</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT48" t="n">
         <v>0.35</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT50" t="n">
         <v>1.76</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT53" t="n">
         <v>0.82</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT55" t="n">
         <v>1.18</v>
@@ -11865,7 +11865,7 @@
         <v>2.19</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>2.26</v>
@@ -12068,7 +12068,7 @@
         <v>1.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.94</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT64" t="n">
         <v>2.06</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT66" t="n">
         <v>0.82</v>
@@ -14910,7 +14910,7 @@
         <v>1.41</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU72" t="n">
         <v>0.84</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT76" t="n">
         <v>1.41</v>
@@ -16128,7 +16128,7 @@
         <v>1.24</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT79" t="n">
         <v>0.82</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT80" t="n">
         <v>0.82</v>
@@ -16940,7 +16940,7 @@
         <v>2.19</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU81" t="n">
         <v>2.41</v>
@@ -17752,7 +17752,7 @@
         <v>1.41</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -18361,7 +18361,7 @@
         <v>1.41</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18767,7 +18767,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.44</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT92" t="n">
         <v>0.35</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT93" t="n">
         <v>0.65</v>
@@ -19579,7 +19579,7 @@
         <v>1.88</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT98" t="n">
         <v>2.06</v>
@@ -20997,7 +20997,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT101" t="n">
         <v>0.82</v>
@@ -21203,7 +21203,7 @@
         <v>1.82</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU102" t="n">
         <v>1.5</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT104" t="n">
         <v>0.71</v>
@@ -22015,7 +22015,7 @@
         <v>1.47</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22218,7 +22218,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22624,7 +22624,7 @@
         <v>1.06</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT112" t="n">
         <v>0.82</v>
@@ -23842,7 +23842,7 @@
         <v>1.88</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU115" t="n">
         <v>1.42</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT116" t="n">
         <v>1.76</v>
@@ -24654,7 +24654,7 @@
         <v>2.19</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU119" t="n">
         <v>2.23</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT121" t="n">
         <v>1.18</v>
@@ -25263,7 +25263,7 @@
         <v>1.88</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU122" t="n">
         <v>2.02</v>
@@ -25869,10 +25869,10 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT128" t="n">
         <v>1.18</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT130" t="n">
         <v>1.56</v>
@@ -27090,7 +27090,7 @@
         <v>1.41</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -28105,7 +28105,7 @@
         <v>1.29</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT137" t="n">
         <v>1.12</v>
@@ -28508,10 +28508,10 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU138" t="n">
         <v>2.18</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT140" t="n">
         <v>0.65</v>
@@ -29117,10 +29117,10 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.99</v>
@@ -29323,7 +29323,7 @@
         <v>1.41</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT143" t="n">
         <v>0.82</v>
@@ -29729,7 +29729,7 @@
         <v>2.19</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -29929,7 +29929,7 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT145" t="n">
         <v>2.12</v>
@@ -30135,7 +30135,7 @@
         <v>1.88</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -32571,7 +32571,7 @@
         <v>1.29</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU158" t="n">
         <v>1.55</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT159" t="n">
         <v>0.82</v>
@@ -32974,7 +32974,7 @@
         <v>1.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT160" t="n">
         <v>1.41</v>
@@ -33180,7 +33180,7 @@
         <v>2.19</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT162" t="n">
         <v>0.65</v>
@@ -33786,10 +33786,10 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU164" t="n">
         <v>1.18</v>
@@ -34192,10 +34192,10 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -34398,7 +34398,7 @@
         <v>1.41</v>
       </c>
       <c r="AT167" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -36631,7 +36631,7 @@
         <v>1.47</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU178" t="n">
         <v>1.71</v>
@@ -36834,7 +36834,7 @@
         <v>1.88</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37846,7 +37846,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT184" t="n">
         <v>0.71</v>
@@ -38255,7 +38255,7 @@
         <v>1.35</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU186" t="n">
         <v>1.44</v>
@@ -38658,7 +38658,7 @@
         <v>2.44</v>
       </c>
       <c r="AS188" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT188" t="n">
         <v>2.12</v>
@@ -39064,7 +39064,7 @@
         <v>1.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT190" t="n">
         <v>1.18</v>
@@ -39267,10 +39267,10 @@
         <v>1.1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT191" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU191" t="n">
         <v>2.37</v>
@@ -39470,7 +39470,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT192" t="n">
         <v>0.35</v>
@@ -39676,7 +39676,7 @@
         <v>0.59</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -40485,7 +40485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT197" t="n">
         <v>0.65</v>
@@ -40691,7 +40691,7 @@
         <v>1.24</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU198" t="n">
         <v>1.59</v>
@@ -41703,7 +41703,7 @@
         <v>0.89</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT203" t="n">
         <v>1.12</v>
@@ -42112,7 +42112,7 @@
         <v>2.44</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU205" t="n">
         <v>1.88</v>
@@ -42924,7 +42924,7 @@
         <v>1.41</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU209" t="n">
         <v>1.47</v>
@@ -43124,7 +43124,7 @@
         <v>1.89</v>
       </c>
       <c r="AS210" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT210" t="n">
         <v>2.06</v>
@@ -43330,7 +43330,7 @@
         <v>2.44</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.86</v>
@@ -43533,7 +43533,7 @@
         <v>1.29</v>
       </c>
       <c r="AT212" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU212" t="n">
         <v>1.6</v>
@@ -44142,7 +44142,7 @@
         <v>2.47</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU215" t="n">
         <v>2.38</v>
@@ -44748,7 +44748,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT218" t="n">
         <v>1.76</v>
@@ -45154,10 +45154,10 @@
         <v>1.1</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU220" t="n">
         <v>2.2</v>
@@ -45357,7 +45357,7 @@
         <v>0.7</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT221" t="n">
         <v>0.65</v>
@@ -45969,7 +45969,7 @@
         <v>1.82</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU224" t="n">
         <v>1.48</v>
@@ -46375,7 +46375,7 @@
         <v>1.06</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46778,7 +46778,7 @@
         <v>0.45</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT228" t="n">
         <v>1</v>
@@ -47590,7 +47590,7 @@
         <v>0.55</v>
       </c>
       <c r="AS232" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT232" t="n">
         <v>0.71</v>
@@ -48405,7 +48405,7 @@
         <v>1.06</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU236" t="n">
         <v>1.51</v>
@@ -48808,7 +48808,7 @@
         <v>1.75</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT238" t="n">
         <v>2.06</v>
@@ -49214,10 +49214,10 @@
         <v>1.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT240" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU240" t="n">
         <v>1.82</v>
@@ -49620,7 +49620,7 @@
         <v>0.83</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT242" t="n">
         <v>0.65</v>
@@ -49823,7 +49823,7 @@
         <v>1.64</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT243" t="n">
         <v>1.76</v>
@@ -50435,7 +50435,7 @@
         <v>1.88</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU246" t="n">
         <v>1.52</v>
@@ -50635,7 +50635,7 @@
         <v>1.5</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT247" t="n">
         <v>1.18</v>
@@ -50841,7 +50841,7 @@
         <v>1.35</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU248" t="n">
         <v>1.52</v>
@@ -51447,7 +51447,7 @@
         <v>1.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT251" t="n">
         <v>1.41</v>
@@ -51853,7 +51853,7 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT253" t="n">
         <v>1.12</v>
@@ -52059,7 +52059,7 @@
         <v>1.06</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU254" t="n">
         <v>1.55</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT256" t="n">
         <v>0.35</v>
@@ -52668,7 +52668,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT257" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU257" t="n">
         <v>1.34</v>
@@ -53480,7 +53480,7 @@
         <v>1.29</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU261" t="n">
         <v>1.61</v>
@@ -53886,7 +53886,7 @@
         <v>0.59</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -54089,7 +54089,7 @@
         <v>1.88</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU264" t="n">
         <v>1.98</v>
@@ -54492,10 +54492,10 @@
         <v>0.46</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU266" t="n">
         <v>1.36</v>
@@ -55510,7 +55510,7 @@
         <v>2.47</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU271" t="n">
         <v>2.4</v>
@@ -55710,7 +55710,7 @@
         <v>0.92</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT272" t="n">
         <v>1.12</v>
@@ -56319,7 +56319,7 @@
         <v>1.31</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT275" t="n">
         <v>1.18</v>
@@ -56525,7 +56525,7 @@
         <v>2.47</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU276" t="n">
         <v>2.34</v>
@@ -56728,7 +56728,7 @@
         <v>1.88</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU277" t="n">
         <v>1.94</v>
@@ -56931,7 +56931,7 @@
         <v>1.35</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU278" t="n">
         <v>1.54</v>
@@ -57743,7 +57743,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU282" t="n">
         <v>1.37</v>
@@ -58146,7 +58146,7 @@
         <v>1.58</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT284" t="n">
         <v>1.56</v>
@@ -58758,7 +58758,7 @@
         <v>2.44</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU287" t="n">
         <v>1.74</v>
@@ -59364,10 +59364,10 @@
         <v>1.14</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT290" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU290" t="n">
         <v>1.43</v>
@@ -59567,7 +59567,7 @@
         <v>1.69</v>
       </c>
       <c r="AS291" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT291" t="n">
         <v>1.56</v>
@@ -60585,7 +60585,7 @@
         <v>1.24</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU296" t="n">
         <v>1.66</v>
@@ -60785,7 +60785,7 @@
         <v>2.43</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT297" t="n">
         <v>2.12</v>
@@ -61600,7 +61600,7 @@
         <v>0.59</v>
       </c>
       <c r="AT301" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU301" t="n">
         <v>1.49</v>
@@ -61800,10 +61800,10 @@
         <v>1.07</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU302" t="n">
         <v>1.43</v>
@@ -62003,7 +62003,7 @@
         <v>0.73</v>
       </c>
       <c r="AS303" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT303" t="n">
         <v>1</v>
@@ -62206,7 +62206,7 @@
         <v>0.87</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT304" t="n">
         <v>0.82</v>
@@ -63224,7 +63224,7 @@
         <v>1.47</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU309" t="n">
         <v>1.63</v>
@@ -63424,7 +63424,7 @@
         <v>0.4</v>
       </c>
       <c r="AS310" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT310" t="n">
         <v>0.35</v>
@@ -63833,7 +63833,7 @@
         <v>1.82</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU312" t="n">
         <v>1.52</v>
@@ -64236,7 +64236,7 @@
         <v>0.64</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT314" t="n">
         <v>0.71</v>
@@ -64642,10 +64642,10 @@
         <v>1</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT316" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU316" t="n">
         <v>1.44</v>
@@ -65660,7 +65660,7 @@
         <v>1.35</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU321" t="n">
         <v>1.57</v>
@@ -65860,7 +65860,7 @@
         <v>2.25</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT322" t="n">
         <v>2.12</v>
@@ -66469,7 +66469,7 @@
         <v>1.53</v>
       </c>
       <c r="AS325" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT325" t="n">
         <v>1.41</v>
@@ -67284,7 +67284,7 @@
         <v>2.44</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU329" t="n">
         <v>1.83</v>
@@ -67890,10 +67890,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU332" t="n">
         <v>1.29</v>
@@ -68093,7 +68093,7 @@
         <v>1.25</v>
       </c>
       <c r="AS333" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT333" t="n">
         <v>1.18</v>
@@ -68502,7 +68502,7 @@
         <v>2.47</v>
       </c>
       <c r="AT335" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU335" t="n">
         <v>2.33</v>
@@ -68702,7 +68702,7 @@
         <v>1.25</v>
       </c>
       <c r="AS336" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT336" t="n">
         <v>1.18</v>
@@ -68905,7 +68905,7 @@
         <v>0.75</v>
       </c>
       <c r="AS337" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT337" t="n">
         <v>0.71</v>
@@ -69163,6 +69163,1021 @@
       </c>
       <c r="BK338" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2782383</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F339" t="n">
+        <v>35</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>2</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>2</v>
+      </c>
+      <c r="L339" t="n">
+        <v>2</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>3</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['19', '27']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>10</v>
+      </c>
+      <c r="R339" t="n">
+        <v>1</v>
+      </c>
+      <c r="S339" t="n">
+        <v>11</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U339" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V339" t="n">
+        <v>10</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X339" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2782386</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F340" t="n">
+        <v>35</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>8</v>
+      </c>
+      <c r="R340" t="n">
+        <v>4</v>
+      </c>
+      <c r="S340" t="n">
+        <v>12</v>
+      </c>
+      <c r="T340" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V340" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X340" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2782388</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>35</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>1</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>5</v>
+      </c>
+      <c r="R341" t="n">
+        <v>6</v>
+      </c>
+      <c r="S341" t="n">
+        <v>11</v>
+      </c>
+      <c r="T341" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2782379</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="n">
+        <v>3</v>
+      </c>
+      <c r="N342" t="n">
+        <v>4</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['9', '82', '86']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>7</v>
+      </c>
+      <c r="R342" t="n">
+        <v>7</v>
+      </c>
+      <c r="S342" t="n">
+        <v>14</v>
+      </c>
+      <c r="T342" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V342" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X342" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2782382</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45052.5625</v>
+      </c>
+      <c r="F343" t="n">
+        <v>35</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>1</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>7</v>
+      </c>
+      <c r="R343" t="n">
+        <v>3</v>
+      </c>
+      <c r="S343" t="n">
+        <v>10</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V343" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X343" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK343"/>
+  <dimension ref="A1:BK348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.41</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT3" t="n">
         <v>1.12</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT6" t="n">
         <v>0.35</v>
@@ -1918,7 +1918,7 @@
         <v>2.06</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT11" t="n">
         <v>2.06</v>
@@ -2933,7 +2933,7 @@
         <v>1.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.47</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT14" t="n">
         <v>1.76</v>
@@ -4151,7 +4151,7 @@
         <v>1.82</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.71</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT25" t="n">
         <v>1.06</v>
@@ -5775,7 +5775,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -5978,7 +5978,7 @@
         <v>1.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU27" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT29" t="n">
         <v>1.56</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT30" t="n">
         <v>2.06</v>
@@ -6993,7 +6993,7 @@
         <v>0.59</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -7399,7 +7399,7 @@
         <v>1.35</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -7805,7 +7805,7 @@
         <v>1.82</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.18</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT43" t="n">
         <v>1.56</v>
@@ -9632,7 +9632,7 @@
         <v>1.24</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT49" t="n">
         <v>1.18</v>
@@ -10850,7 +10850,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -11256,7 +11256,7 @@
         <v>1.61</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -12880,7 +12880,7 @@
         <v>2.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1.18</v>
@@ -13286,7 +13286,7 @@
         <v>1.88</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU63" t="n">
         <v>1.22</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>2.06</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -14098,7 +14098,7 @@
         <v>1.82</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU67" t="n">
         <v>1.9</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT70" t="n">
         <v>1.76</v>
@@ -15519,7 +15519,7 @@
         <v>0.59</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT75" t="n">
         <v>0.65</v>
@@ -15925,7 +15925,7 @@
         <v>2.72</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -16534,7 +16534,7 @@
         <v>1.22</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU79" t="n">
         <v>0.8100000000000001</v>
@@ -16737,7 +16737,7 @@
         <v>2.72</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU80" t="n">
         <v>2.39</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT81" t="n">
         <v>1.06</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT83" t="n">
         <v>1.18</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT84" t="n">
         <v>1.18</v>
@@ -18158,7 +18158,7 @@
         <v>1.06</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>1.22</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>2.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19782,7 +19782,7 @@
         <v>1.24</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT99" t="n">
         <v>0.35</v>
@@ -21000,7 +21000,7 @@
         <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU101" t="n">
         <v>0.9399999999999999</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU103" t="n">
         <v>2.32</v>
@@ -22012,7 +22012,7 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT106" t="n">
         <v>1.22</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>1.12</v>
@@ -23030,7 +23030,7 @@
         <v>1.35</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23233,7 +23233,7 @@
         <v>1.61</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU112" t="n">
         <v>1.12</v>
@@ -23436,7 +23436,7 @@
         <v>0.59</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU113" t="n">
         <v>1.75</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -24651,7 +24651,7 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT119" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>1.41</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT122" t="n">
         <v>1.12</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT131" t="n">
         <v>1.06</v>
@@ -27293,7 +27293,7 @@
         <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27496,7 +27496,7 @@
         <v>1.35</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU133" t="n">
         <v>1.56</v>
@@ -27699,7 +27699,7 @@
         <v>1.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -28102,7 +28102,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT136" t="n">
         <v>0.89</v>
@@ -28711,10 +28711,10 @@
         <v>0.86</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -28917,7 +28917,7 @@
         <v>1.22</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU140" t="n">
         <v>1.09</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
         <v>0.89</v>
@@ -29526,7 +29526,7 @@
         <v>2.39</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU143" t="n">
         <v>2.44</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT144" t="n">
         <v>1.12</v>
@@ -29932,7 +29932,7 @@
         <v>1.61</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU145" t="n">
         <v>1.33</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT146" t="n">
         <v>1.22</v>
@@ -30335,10 +30335,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -32568,7 +32568,7 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT158" t="n">
         <v>1.06</v>
@@ -32774,7 +32774,7 @@
         <v>2.39</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU159" t="n">
         <v>2.38</v>
@@ -32977,7 +32977,7 @@
         <v>1.61</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT161" t="n">
         <v>0.5</v>
@@ -33383,7 +33383,7 @@
         <v>2.72</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU163" t="n">
         <v>1.79</v>
@@ -33989,10 +33989,10 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU165" t="n">
         <v>1.92</v>
@@ -34395,7 +34395,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT167" t="n">
         <v>1.12</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT178" t="n">
         <v>1.12</v>
@@ -37237,10 +37237,10 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU181" t="n">
         <v>1.47</v>
@@ -37443,7 +37443,7 @@
         <v>1.06</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT183" t="n">
         <v>1.12</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT187" t="n">
         <v>1.18</v>
@@ -38661,7 +38661,7 @@
         <v>2.06</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -38864,7 +38864,7 @@
         <v>1.41</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -39876,10 +39876,10 @@
         <v>0.78</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU194" t="n">
         <v>1.62</v>
@@ -40894,7 +40894,7 @@
         <v>2.47</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU199" t="n">
         <v>2.35</v>
@@ -41094,7 +41094,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT200" t="n">
         <v>1.18</v>
@@ -41503,7 +41503,7 @@
         <v>1.06</v>
       </c>
       <c r="AT202" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41906,7 +41906,7 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT204" t="n">
         <v>1</v>
@@ -42315,7 +42315,7 @@
         <v>1.82</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -42518,7 +42518,7 @@
         <v>1.88</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU207" t="n">
         <v>1.48</v>
@@ -42718,7 +42718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT208" t="n">
         <v>0.71</v>
@@ -42921,7 +42921,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT209" t="n">
         <v>0.5</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT212" t="n">
         <v>1.12</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT213" t="n">
         <v>0.35</v>
@@ -44954,7 +44954,7 @@
         <v>1.24</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU219" t="n">
         <v>1.6</v>
@@ -45360,7 +45360,7 @@
         <v>2.39</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU221" t="n">
         <v>2.3</v>
@@ -45766,7 +45766,7 @@
         <v>1.88</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU223" t="n">
         <v>1.56</v>
@@ -46169,7 +46169,7 @@
         <v>1.27</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT225" t="n">
         <v>1.18</v>
@@ -46575,7 +46575,7 @@
         <v>1.82</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT227" t="n">
         <v>2.06</v>
@@ -46984,7 +46984,7 @@
         <v>1.35</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU229" t="n">
         <v>1.52</v>
@@ -47184,7 +47184,7 @@
         <v>0.8</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT230" t="n">
         <v>1.12</v>
@@ -47390,7 +47390,7 @@
         <v>2.44</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU231" t="n">
         <v>1.93</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT233" t="n">
         <v>0.65</v>
@@ -47999,7 +47999,7 @@
         <v>1.24</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU234" t="n">
         <v>1.63</v>
@@ -48202,7 +48202,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU235" t="n">
         <v>1.41</v>
@@ -48605,7 +48605,7 @@
         <v>0.55</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT237" t="n">
         <v>0.35</v>
@@ -49420,7 +49420,7 @@
         <v>2.47</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU241" t="n">
         <v>2.31</v>
@@ -50026,7 +50026,7 @@
         <v>0.5</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT244" t="n">
         <v>0.71</v>
@@ -51044,7 +51044,7 @@
         <v>0.59</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU249" t="n">
         <v>1.6</v>
@@ -51244,10 +51244,10 @@
         <v>0.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU250" t="n">
         <v>1.35</v>
@@ -51450,7 +51450,7 @@
         <v>2.39</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU251" t="n">
         <v>2.2</v>
@@ -53071,10 +53071,10 @@
         <v>2.38</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT259" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU259" t="n">
         <v>1.63</v>
@@ -53277,7 +53277,7 @@
         <v>2.44</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU260" t="n">
         <v>1.8</v>
@@ -53477,7 +53477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT261" t="n">
         <v>1.22</v>
@@ -53680,7 +53680,7 @@
         <v>0.77</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT262" t="n">
         <v>0.65</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT264" t="n">
         <v>0.89</v>
@@ -54289,7 +54289,7 @@
         <v>1.5</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT265" t="n">
         <v>1.76</v>
@@ -54901,7 +54901,7 @@
         <v>1.82</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU268" t="n">
         <v>1.52</v>
@@ -55307,7 +55307,7 @@
         <v>1.35</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU270" t="n">
         <v>1.53</v>
@@ -55916,7 +55916,7 @@
         <v>1.41</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU273" t="n">
         <v>1.28</v>
@@ -56116,7 +56116,7 @@
         <v>0.71</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT274" t="n">
         <v>0.65</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT277" t="n">
         <v>1.06</v>
@@ -57131,10 +57131,10 @@
         <v>0.93</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU279" t="n">
         <v>1.62</v>
@@ -57334,10 +57334,10 @@
         <v>1.54</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU280" t="n">
         <v>1.98</v>
@@ -58552,7 +58552,7 @@
         <v>1.62</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT286" t="n">
         <v>1.76</v>
@@ -58961,7 +58961,7 @@
         <v>2.44</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU288" t="n">
         <v>1.73</v>
@@ -60176,7 +60176,7 @@
         <v>0.46</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT294" t="n">
         <v>0.71</v>
@@ -60788,7 +60788,7 @@
         <v>2.39</v>
       </c>
       <c r="AT297" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU297" t="n">
         <v>2.18</v>
@@ -62209,7 +62209,7 @@
         <v>2.72</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU304" t="n">
         <v>2.15</v>
@@ -62409,10 +62409,10 @@
         <v>2.33</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT305" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU305" t="n">
         <v>1.55</v>
@@ -62612,10 +62612,10 @@
         <v>1.43</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU306" t="n">
         <v>1.32</v>
@@ -63021,7 +63021,7 @@
         <v>2.47</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU308" t="n">
         <v>2.29</v>
@@ -63221,7 +63221,7 @@
         <v>0.6</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT309" t="n">
         <v>0.5</v>
@@ -63630,7 +63630,7 @@
         <v>1.41</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU311" t="n">
         <v>1.35</v>
@@ -64439,7 +64439,7 @@
         <v>1.33</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT315" t="n">
         <v>1.18</v>
@@ -65051,7 +65051,7 @@
         <v>1.24</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU318" t="n">
         <v>1.63</v>
@@ -65251,7 +65251,7 @@
         <v>1.67</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT319" t="n">
         <v>1.56</v>
@@ -65454,7 +65454,7 @@
         <v>1</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT320" t="n">
         <v>1.12</v>
@@ -65863,7 +65863,7 @@
         <v>2.72</v>
       </c>
       <c r="AT322" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AU322" t="n">
         <v>2.11</v>
@@ -66472,7 +66472,7 @@
         <v>2.06</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU325" t="n">
         <v>1.74</v>
@@ -67078,7 +67078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT328" t="n">
         <v>0.65</v>
@@ -67484,10 +67484,10 @@
         <v>0.88</v>
       </c>
       <c r="AS330" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT330" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU330" t="n">
         <v>1.98</v>
@@ -67687,7 +67687,7 @@
         <v>2</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT331" t="n">
         <v>2.06</v>
@@ -68299,7 +68299,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU334" t="n">
         <v>1.4</v>
@@ -69108,10 +69108,10 @@
         <v>1.5</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU338" t="n">
         <v>2.07</v>
@@ -70178,6 +70178,1021 @@
       </c>
       <c r="BK343" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2782384</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45053.52083333334</v>
+      </c>
+      <c r="F344" t="n">
+        <v>35</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1</v>
+      </c>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>2</v>
+      </c>
+      <c r="N344" t="n">
+        <v>2</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>['14', '71']</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>9</v>
+      </c>
+      <c r="R344" t="n">
+        <v>4</v>
+      </c>
+      <c r="S344" t="n">
+        <v>13</v>
+      </c>
+      <c r="T344" t="n">
+        <v>3</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V344" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W344" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X344" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK344" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2782387</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F345" t="n">
+        <v>35</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>1</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q345" t="n">
+        <v>5</v>
+      </c>
+      <c r="R345" t="n">
+        <v>6</v>
+      </c>
+      <c r="S345" t="n">
+        <v>11</v>
+      </c>
+      <c r="T345" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U345" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V345" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W345" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X345" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ345" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA345" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB345" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC345" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD345" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE345" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF345" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG345" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH345" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ345" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK345" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2782381</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45054.45833333334</v>
+      </c>
+      <c r="F346" t="n">
+        <v>35</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>3</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>3</v>
+      </c>
+      <c r="L346" t="n">
+        <v>5</v>
+      </c>
+      <c r="M346" t="n">
+        <v>3</v>
+      </c>
+      <c r="N346" t="n">
+        <v>8</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>['10', '18', '44', '51', '70']</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>['59', '81', '89']</t>
+        </is>
+      </c>
+      <c r="Q346" t="n">
+        <v>3</v>
+      </c>
+      <c r="R346" t="n">
+        <v>7</v>
+      </c>
+      <c r="S346" t="n">
+        <v>10</v>
+      </c>
+      <c r="T346" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U346" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V346" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W346" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X346" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ346" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA346" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB346" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC346" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD346" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE346" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF346" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG346" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH346" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ346" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK346" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2782380</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45054.5625</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>3</v>
+      </c>
+      <c r="K347" t="n">
+        <v>3</v>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="n">
+        <v>5</v>
+      </c>
+      <c r="N347" t="n">
+        <v>6</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>['1', '29', '35', '76', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>15</v>
+      </c>
+      <c r="R347" t="n">
+        <v>2</v>
+      </c>
+      <c r="S347" t="n">
+        <v>17</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V347" t="n">
+        <v>7</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X347" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2782385</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45054.66666666666</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>3</v>
+      </c>
+      <c r="J348" t="n">
+        <v>1</v>
+      </c>
+      <c r="K348" t="n">
+        <v>4</v>
+      </c>
+      <c r="L348" t="n">
+        <v>4</v>
+      </c>
+      <c r="M348" t="n">
+        <v>3</v>
+      </c>
+      <c r="N348" t="n">
+        <v>7</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['18', '21', '44', '73']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>['25', '51', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>2</v>
+      </c>
+      <c r="R348" t="n">
+        <v>11</v>
+      </c>
+      <c r="S348" t="n">
+        <v>13</v>
+      </c>
+      <c r="T348" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V348" t="n">
+        <v>4</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X348" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK348"/>
+  <dimension ref="A1:BK349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT5" t="n">
         <v>0.65</v>
@@ -3339,7 +3339,7 @@
         <v>1.76</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT28" t="n">
         <v>1.12</v>
@@ -8617,7 +8617,7 @@
         <v>1.61</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT45" t="n">
         <v>0.78</v>
@@ -10647,7 +10647,7 @@
         <v>2.39</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -14707,7 +14707,7 @@
         <v>1.56</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT77" t="n">
         <v>1.22</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT95" t="n">
         <v>2.17</v>
@@ -20188,7 +20188,7 @@
         <v>2.44</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT114" t="n">
         <v>1.18</v>
@@ -24045,7 +24045,7 @@
         <v>2.06</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -27902,7 +27902,7 @@
         <v>0.59</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -30744,7 +30744,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT157" t="n">
         <v>2.06</v>
@@ -35007,7 +35007,7 @@
         <v>2.47</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT174" t="n">
         <v>0.71</v>
@@ -40285,7 +40285,7 @@
         <v>1.41</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU196" t="n">
         <v>1.53</v>
@@ -40688,7 +40688,7 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT198" t="n">
         <v>1.06</v>
@@ -44751,7 +44751,7 @@
         <v>1.22</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU218" t="n">
         <v>1.2</v>
@@ -44951,7 +44951,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT219" t="n">
         <v>1.33</v>
@@ -47996,7 +47996,7 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT234" t="n">
         <v>0.78</v>
@@ -49826,7 +49826,7 @@
         <v>2.72</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU243" t="n">
         <v>2.21</v>
@@ -52259,7 +52259,7 @@
         <v>1.64</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT255" t="n">
         <v>1.56</v>
@@ -54292,7 +54292,7 @@
         <v>1.5</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -57943,7 +57943,7 @@
         <v>0.46</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT283" t="n">
         <v>0.35</v>
@@ -58555,7 +58555,7 @@
         <v>1.39</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU286" t="n">
         <v>1.59</v>
@@ -59773,7 +59773,7 @@
         <v>1.82</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU292" t="n">
         <v>1.51</v>
@@ -60582,7 +60582,7 @@
         <v>0.71</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT296" t="n">
         <v>0.89</v>
@@ -60991,7 +60991,7 @@
         <v>1.88</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU298" t="n">
         <v>1.52</v>
@@ -62815,7 +62815,7 @@
         <v>0.87</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT307" t="n">
         <v>1.12</v>
@@ -65048,7 +65048,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT318" t="n">
         <v>0.78</v>
@@ -66269,7 +66269,7 @@
         <v>1.06</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU324" t="n">
         <v>1.6</v>
@@ -71193,6 +71193,209 @@
       </c>
       <c r="BK348" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2782394</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45059.35416666666</v>
+      </c>
+      <c r="F349" t="n">
+        <v>36</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>1</v>
+      </c>
+      <c r="K349" t="n">
+        <v>2</v>
+      </c>
+      <c r="L349" t="n">
+        <v>2</v>
+      </c>
+      <c r="M349" t="n">
+        <v>2</v>
+      </c>
+      <c r="N349" t="n">
+        <v>4</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>['7', '79']</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>['31', '69']</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T349" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U349" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X349" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK349"/>
+  <dimension ref="A1:BK358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>2.17</v>
@@ -1106,7 +1106,7 @@
         <v>1.56</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.22</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.06</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.12</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT9" t="n">
         <v>1.06</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.39</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT12" t="n">
         <v>0.78</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0.78</v>
@@ -3542,7 +3542,7 @@
         <v>2.72</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -3948,7 +3948,7 @@
         <v>1.61</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.06</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.22</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU24" t="n">
         <v>1.26</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT26" t="n">
         <v>0.78</v>
@@ -6384,7 +6384,7 @@
         <v>1.39</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6587,7 +6587,7 @@
         <v>2.06</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -7196,7 +7196,7 @@
         <v>2.39</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU33" t="n">
         <v>2.56</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT34" t="n">
         <v>0.78</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT36" t="n">
         <v>0.78</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.06</v>
@@ -9226,7 +9226,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT44" t="n">
         <v>1.12</v>
@@ -9835,7 +9835,7 @@
         <v>1.22</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU46" t="n">
         <v>0.85</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1.22</v>
@@ -10241,7 +10241,7 @@
         <v>2.72</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU48" t="n">
         <v>2.4</v>
@@ -10444,7 +10444,7 @@
         <v>1.39</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11456,10 +11456,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11662,7 +11662,7 @@
         <v>2.06</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU58" t="n">
         <v>1.78</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT61" t="n">
         <v>2.17</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT63" t="n">
         <v>0.78</v>
@@ -13489,7 +13489,7 @@
         <v>1.61</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13692,7 +13692,7 @@
         <v>2.06</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT67" t="n">
         <v>2.17</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14501,10 +14501,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>1.12</v>
@@ -15316,7 +15316,7 @@
         <v>2.39</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU73" t="n">
         <v>2.7</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT74" t="n">
         <v>0.78</v>
@@ -15722,7 +15722,7 @@
         <v>1.39</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -17140,10 +17140,10 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU82" t="n">
         <v>1.51</v>
@@ -17346,7 +17346,7 @@
         <v>1.76</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17549,7 +17549,7 @@
         <v>1.39</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU84" t="n">
         <v>1.39</v>
@@ -17749,7 +17749,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5</v>
@@ -17952,10 +17952,10 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT90" t="n">
         <v>0.89</v>
@@ -18970,7 +18970,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19173,7 +19173,7 @@
         <v>1.61</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19576,7 +19576,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT94" t="n">
         <v>1.12</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT97" t="n">
         <v>1.72</v>
@@ -20391,7 +20391,7 @@
         <v>2.39</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20594,7 +20594,7 @@
         <v>1.76</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT102" t="n">
         <v>1.12</v>
@@ -21609,7 +21609,7 @@
         <v>2.39</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU104" t="n">
         <v>2.4</v>
@@ -21809,10 +21809,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>0.89</v>
@@ -22827,7 +22827,7 @@
         <v>2.72</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
         <v>1.33</v>
@@ -23433,7 +23433,7 @@
         <v>2.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT113" t="n">
         <v>2.17</v>
@@ -23639,7 +23639,7 @@
         <v>1.22</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT115" t="n">
         <v>1.06</v>
@@ -24248,7 +24248,7 @@
         <v>1.39</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,10 +24448,10 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT120" t="n">
         <v>0.78</v>
@@ -25060,7 +25060,7 @@
         <v>1.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU121" t="n">
         <v>1.1</v>
@@ -25463,10 +25463,10 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -26072,10 +26072,10 @@
         <v>0.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26481,7 +26481,7 @@
         <v>2.72</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU128" t="n">
         <v>2.22</v>
@@ -26684,7 +26684,7 @@
         <v>1.22</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -26887,7 +26887,7 @@
         <v>1.61</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU130" t="n">
         <v>1.32</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
         <v>0.78</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
         <v>2.17</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT134" t="n">
         <v>1.33</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT135" t="n">
         <v>1.72</v>
@@ -28308,7 +28308,7 @@
         <v>2.06</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -30538,10 +30538,10 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30741,7 +30741,7 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT149" t="n">
         <v>1.72</v>
@@ -30944,10 +30944,10 @@
         <v>0.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31147,10 +31147,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU151" t="n">
         <v>1.7</v>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31756,10 +31756,10 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -31959,10 +31959,10 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,10 +32162,10 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32368,7 +32368,7 @@
         <v>1.22</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -34598,10 +34598,10 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU169" t="n">
         <v>1.35</v>
@@ -35004,7 +35004,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT170" t="n">
         <v>1.72</v>
@@ -35207,10 +35207,10 @@
         <v>1.63</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU171" t="n">
         <v>1.52</v>
@@ -35410,10 +35410,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -35613,10 +35613,10 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -35819,7 +35819,7 @@
         <v>1.22</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36019,10 +36019,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36222,10 +36222,10 @@
         <v>0.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -36425,10 +36425,10 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36831,7 +36831,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT179" t="n">
         <v>0.5</v>
@@ -37034,10 +37034,10 @@
         <v>2.13</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU180" t="n">
         <v>1.98</v>
@@ -37440,7 +37440,7 @@
         <v>0.67</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT182" t="n">
         <v>0.78</v>
@@ -37646,7 +37646,7 @@
         <v>1.76</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -37849,7 +37849,7 @@
         <v>1.61</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38049,10 +38049,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU185" t="n">
         <v>1.45</v>
@@ -38252,7 +38252,7 @@
         <v>1.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT186" t="n">
         <v>0.89</v>
@@ -38458,7 +38458,7 @@
         <v>2.06</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU187" t="n">
         <v>2.08</v>
@@ -38861,7 +38861,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT189" t="n">
         <v>1.33</v>
@@ -39067,7 +39067,7 @@
         <v>2.72</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -39473,7 +39473,7 @@
         <v>1.22</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU192" t="n">
         <v>1.16</v>
@@ -39673,7 +39673,7 @@
         <v>0.89</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT193" t="n">
         <v>1.22</v>
@@ -40079,10 +40079,10 @@
         <v>1.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU195" t="n">
         <v>1.4</v>
@@ -40282,7 +40282,7 @@
         <v>1.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT196" t="n">
         <v>1.72</v>
@@ -40488,7 +40488,7 @@
         <v>2.72</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU197" t="n">
         <v>2.22</v>
@@ -40891,7 +40891,7 @@
         <v>1.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT199" t="n">
         <v>1.33</v>
@@ -41097,7 +41097,7 @@
         <v>1.56</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -41297,10 +41297,10 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41500,7 +41500,7 @@
         <v>2.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT202" t="n">
         <v>2.17</v>
@@ -41706,7 +41706,7 @@
         <v>1.61</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU203" t="n">
         <v>1.35</v>
@@ -41909,7 +41909,7 @@
         <v>1.76</v>
       </c>
       <c r="AT204" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU204" t="n">
         <v>1.86</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT205" t="n">
         <v>0.89</v>
@@ -42312,7 +42312,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT206" t="n">
         <v>0.78</v>
@@ -42515,7 +42515,7 @@
         <v>0.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT207" t="n">
         <v>0.78</v>
@@ -42721,7 +42721,7 @@
         <v>2.06</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU208" t="n">
         <v>2.09</v>
@@ -43127,7 +43127,7 @@
         <v>2.06</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU210" t="n">
         <v>1.9</v>
@@ -43327,7 +43327,7 @@
         <v>0.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT211" t="n">
         <v>0.5</v>
@@ -43736,7 +43736,7 @@
         <v>1.56</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU213" t="n">
         <v>1.63</v>
@@ -43936,10 +43936,10 @@
         <v>1.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44139,7 +44139,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT215" t="n">
         <v>1.06</v>
@@ -44342,10 +44342,10 @@
         <v>1.64</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU216" t="n">
         <v>1.35</v>
@@ -44545,10 +44545,10 @@
         <v>0.6</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -45560,10 +45560,10 @@
         <v>1.7</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU222" t="n">
         <v>2.42</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT223" t="n">
         <v>2.17</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT224" t="n">
         <v>0.89</v>
@@ -46172,7 +46172,7 @@
         <v>1.76</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU225" t="n">
         <v>1.92</v>
@@ -46372,7 +46372,7 @@
         <v>0.55</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT226" t="n">
         <v>0.5</v>
@@ -46578,7 +46578,7 @@
         <v>1.5</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU227" t="n">
         <v>1.42</v>
@@ -46781,7 +46781,7 @@
         <v>1.61</v>
       </c>
       <c r="AT228" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU228" t="n">
         <v>1.37</v>
@@ -46981,7 +46981,7 @@
         <v>0.82</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT229" t="n">
         <v>0.78</v>
@@ -47187,7 +47187,7 @@
         <v>2.06</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU230" t="n">
         <v>2.02</v>
@@ -47387,7 +47387,7 @@
         <v>1.09</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT231" t="n">
         <v>0.78</v>
@@ -47593,7 +47593,7 @@
         <v>2.06</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU232" t="n">
         <v>1.84</v>
@@ -47796,7 +47796,7 @@
         <v>1.56</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU233" t="n">
         <v>1.64</v>
@@ -48199,7 +48199,7 @@
         <v>2.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT235" t="n">
         <v>2.17</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT236" t="n">
         <v>1.22</v>
@@ -48608,7 +48608,7 @@
         <v>1.39</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU237" t="n">
         <v>1.57</v>
@@ -48811,7 +48811,7 @@
         <v>1.22</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU238" t="n">
         <v>1.22</v>
@@ -49011,10 +49011,10 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU239" t="n">
         <v>1.42</v>
@@ -49417,7 +49417,7 @@
         <v>0.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT241" t="n">
         <v>0.78</v>
@@ -49623,7 +49623,7 @@
         <v>2.39</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU242" t="n">
         <v>2.23</v>
@@ -50029,7 +50029,7 @@
         <v>1.76</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU244" t="n">
         <v>1.94</v>
@@ -50229,10 +50229,10 @@
         <v>0.67</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT245" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU245" t="n">
         <v>2.28</v>
@@ -50432,7 +50432,7 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT246" t="n">
         <v>0.89</v>
@@ -50638,7 +50638,7 @@
         <v>1.61</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU247" t="n">
         <v>1.38</v>
@@ -50838,7 +50838,7 @@
         <v>0.5</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT248" t="n">
         <v>0.5</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT249" t="n">
         <v>0.78</v>
@@ -51650,10 +51650,10 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU252" t="n">
         <v>1.49</v>
@@ -51856,7 +51856,7 @@
         <v>1.22</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU253" t="n">
         <v>1.24</v>
@@ -52056,7 +52056,7 @@
         <v>1.09</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT254" t="n">
         <v>1.06</v>
@@ -52262,7 +52262,7 @@
         <v>1.22</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU255" t="n">
         <v>1.64</v>
@@ -52465,7 +52465,7 @@
         <v>2.06</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU256" t="n">
         <v>1.77</v>
@@ -52665,7 +52665,7 @@
         <v>1</v>
       </c>
       <c r="AS257" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT257" t="n">
         <v>1.12</v>
@@ -52868,10 +52868,10 @@
         <v>1.85</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT258" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU258" t="n">
         <v>1.37</v>
@@ -53274,7 +53274,7 @@
         <v>0.92</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT260" t="n">
         <v>0.78</v>
@@ -53683,7 +53683,7 @@
         <v>2.06</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -53883,7 +53883,7 @@
         <v>1</v>
       </c>
       <c r="AS263" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT263" t="n">
         <v>1.06</v>
@@ -54695,10 +54695,10 @@
         <v>1.38</v>
       </c>
       <c r="AS267" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU267" t="n">
         <v>1.51</v>
@@ -54898,7 +54898,7 @@
         <v>0.92</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT268" t="n">
         <v>0.78</v>
@@ -55101,10 +55101,10 @@
         <v>0.62</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT269" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU269" t="n">
         <v>1.48</v>
@@ -55304,7 +55304,7 @@
         <v>0.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT270" t="n">
         <v>0.78</v>
@@ -55507,7 +55507,7 @@
         <v>0.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT271" t="n">
         <v>0.89</v>
@@ -55713,7 +55713,7 @@
         <v>2.72</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU272" t="n">
         <v>2.13</v>
@@ -55913,7 +55913,7 @@
         <v>0.93</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT273" t="n">
         <v>0.78</v>
@@ -56119,7 +56119,7 @@
         <v>1.5</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU274" t="n">
         <v>1.29</v>
@@ -56322,7 +56322,7 @@
         <v>1.22</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU275" t="n">
         <v>1.21</v>
@@ -56522,7 +56522,7 @@
         <v>0.64</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT276" t="n">
         <v>0.5</v>
@@ -56928,7 +56928,7 @@
         <v>1.15</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT278" t="n">
         <v>1.22</v>
@@ -57537,10 +57537,10 @@
         <v>1.36</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU281" t="n">
         <v>1.55</v>
@@ -57740,7 +57740,7 @@
         <v>1.29</v>
       </c>
       <c r="AS282" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT282" t="n">
         <v>1.22</v>
@@ -57946,7 +57946,7 @@
         <v>1.22</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU283" t="n">
         <v>1.62</v>
@@ -58149,7 +58149,7 @@
         <v>1.22</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU284" t="n">
         <v>1.24</v>
@@ -58349,10 +58349,10 @@
         <v>0.86</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU285" t="n">
         <v>1.63</v>
@@ -58755,7 +58755,7 @@
         <v>1.14</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT287" t="n">
         <v>1.06</v>
@@ -58958,7 +58958,7 @@
         <v>0.64</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT288" t="n">
         <v>0.78</v>
@@ -59161,10 +59161,10 @@
         <v>0.43</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU289" t="n">
         <v>1.55</v>
@@ -59570,7 +59570,7 @@
         <v>2.06</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU291" t="n">
         <v>1.76</v>
@@ -59770,7 +59770,7 @@
         <v>1.71</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT292" t="n">
         <v>1.72</v>
@@ -59973,10 +59973,10 @@
         <v>0.57</v>
       </c>
       <c r="AS293" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT293" t="n">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AT293" t="n">
-        <v>1</v>
       </c>
       <c r="AU293" t="n">
         <v>1.37</v>
@@ -60179,7 +60179,7 @@
         <v>1.56</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60379,10 +60379,10 @@
         <v>1.93</v>
       </c>
       <c r="AS295" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT295" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU295" t="n">
         <v>1.55</v>
@@ -60988,7 +60988,7 @@
         <v>1.8</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT298" t="n">
         <v>1.72</v>
@@ -61191,10 +61191,10 @@
         <v>1.57</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU299" t="n">
         <v>1.61</v>
@@ -61394,10 +61394,10 @@
         <v>1.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -61597,7 +61597,7 @@
         <v>0.87</v>
       </c>
       <c r="AS301" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT301" t="n">
         <v>0.89</v>
@@ -62006,7 +62006,7 @@
         <v>2.06</v>
       </c>
       <c r="AT303" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU303" t="n">
         <v>1.71</v>
@@ -62818,7 +62818,7 @@
         <v>1.22</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU307" t="n">
         <v>1.66</v>
@@ -63018,7 +63018,7 @@
         <v>0.87</v>
       </c>
       <c r="AS308" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT308" t="n">
         <v>0.78</v>
@@ -63427,7 +63427,7 @@
         <v>2.39</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU310" t="n">
         <v>2.17</v>
@@ -63627,7 +63627,7 @@
         <v>0.6</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT311" t="n">
         <v>0.78</v>
@@ -63830,7 +63830,7 @@
         <v>1.4</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT312" t="n">
         <v>1.22</v>
@@ -64033,10 +64033,10 @@
         <v>0.73</v>
       </c>
       <c r="AS313" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT313" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU313" t="n">
         <v>1.39</v>
@@ -64239,7 +64239,7 @@
         <v>1.22</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU314" t="n">
         <v>1.26</v>
@@ -64442,7 +64442,7 @@
         <v>2.06</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU315" t="n">
         <v>1.97</v>
@@ -64845,10 +64845,10 @@
         <v>1.33</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU317" t="n">
         <v>1.52</v>
@@ -65254,7 +65254,7 @@
         <v>1.5</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU319" t="n">
         <v>1.28</v>
@@ -65457,7 +65457,7 @@
         <v>1.39</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU320" t="n">
         <v>1.56</v>
@@ -65657,7 +65657,7 @@
         <v>1</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT321" t="n">
         <v>1.06</v>
@@ -66063,10 +66063,10 @@
         <v>0.88</v>
       </c>
       <c r="AS323" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT323" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU323" t="n">
         <v>1.48</v>
@@ -66266,7 +66266,7 @@
         <v>1.69</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT324" t="n">
         <v>1.72</v>
@@ -66672,10 +66672,10 @@
         <v>0.8</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU326" t="n">
         <v>1.34</v>
@@ -66875,10 +66875,10 @@
         <v>0.38</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU327" t="n">
         <v>1.52</v>
@@ -67081,7 +67081,7 @@
         <v>1.76</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU328" t="n">
         <v>2.03</v>
@@ -67281,7 +67281,7 @@
         <v>1.38</v>
       </c>
       <c r="AS329" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT329" t="n">
         <v>1.22</v>
@@ -67690,7 +67690,7 @@
         <v>1.56</v>
       </c>
       <c r="AT331" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AU331" t="n">
         <v>1.63</v>
@@ -68096,7 +68096,7 @@
         <v>2.39</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU333" t="n">
         <v>2.15</v>
@@ -68296,7 +68296,7 @@
         <v>0.63</v>
       </c>
       <c r="AS334" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT334" t="n">
         <v>0.78</v>
@@ -68499,7 +68499,7 @@
         <v>1.07</v>
       </c>
       <c r="AS335" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AT335" t="n">
         <v>1.12</v>
@@ -68705,7 +68705,7 @@
         <v>2.39</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU336" t="n">
         <v>2.1</v>
@@ -68908,7 +68908,7 @@
         <v>2.72</v>
       </c>
       <c r="AT337" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU337" t="n">
         <v>2.09</v>
@@ -71257,13 +71257,13 @@
         </is>
       </c>
       <c r="Q349" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R349" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S349" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T349" t="n">
         <v>4.75</v>
@@ -71380,22 +71380,1849 @@
         <v>2.38</v>
       </c>
       <c r="BF349" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG349" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH349" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI349" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BJ349" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK349" t="n">
-        <v>-1</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2782397</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F350" t="n">
+        <v>36</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>2</v>
+      </c>
+      <c r="N350" t="n">
+        <v>2</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>['48', '72']</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>1</v>
+      </c>
+      <c r="R350" t="n">
+        <v>8</v>
+      </c>
+      <c r="S350" t="n">
+        <v>9</v>
+      </c>
+      <c r="T350" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V350" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X350" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2782440</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F351" t="n">
+        <v>36</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>1</v>
+      </c>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="n">
+        <v>2</v>
+      </c>
+      <c r="M351" t="n">
+        <v>2</v>
+      </c>
+      <c r="N351" t="n">
+        <v>4</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['51', '58']</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>['13', '62']</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>2</v>
+      </c>
+      <c r="R351" t="n">
+        <v>5</v>
+      </c>
+      <c r="S351" t="n">
+        <v>7</v>
+      </c>
+      <c r="T351" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U351" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V351" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X351" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2782390</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="n">
+        <v>2</v>
+      </c>
+      <c r="M352" t="n">
+        <v>1</v>
+      </c>
+      <c r="N352" t="n">
+        <v>3</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['8', '72']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>8</v>
+      </c>
+      <c r="R352" t="n">
+        <v>3</v>
+      </c>
+      <c r="S352" t="n">
+        <v>11</v>
+      </c>
+      <c r="T352" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X352" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2782392</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>1</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="n">
+        <v>2</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>2</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>['39', '58']</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>11</v>
+      </c>
+      <c r="R353" t="n">
+        <v>2</v>
+      </c>
+      <c r="S353" t="n">
+        <v>13</v>
+      </c>
+      <c r="T353" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V353" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2782396</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="n">
+        <v>2</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>2</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['32', '90+4']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>11</v>
+      </c>
+      <c r="R354" t="n">
+        <v>7</v>
+      </c>
+      <c r="S354" t="n">
+        <v>18</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V354" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X354" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2782393</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45060.41666666666</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>2</v>
+      </c>
+      <c r="K355" t="n">
+        <v>2</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>3</v>
+      </c>
+      <c r="N355" t="n">
+        <v>3</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['37', '39', '51']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>8</v>
+      </c>
+      <c r="R355" t="n">
+        <v>6</v>
+      </c>
+      <c r="S355" t="n">
+        <v>14</v>
+      </c>
+      <c r="T355" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V355" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X355" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2782391</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45060.41666666666</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>2</v>
+      </c>
+      <c r="L356" t="n">
+        <v>2</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>2</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>['20', '43']</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>7</v>
+      </c>
+      <c r="R356" t="n">
+        <v>5</v>
+      </c>
+      <c r="S356" t="n">
+        <v>12</v>
+      </c>
+      <c r="T356" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V356" t="n">
+        <v>4</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X356" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2782389</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45060.52083333334</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>3</v>
+      </c>
+      <c r="N357" t="n">
+        <v>3</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['51', '86', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>5</v>
+      </c>
+      <c r="R357" t="n">
+        <v>2</v>
+      </c>
+      <c r="S357" t="n">
+        <v>7</v>
+      </c>
+      <c r="T357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V357" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X357" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2782395</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45061.66666666666</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>2</v>
+      </c>
+      <c r="K358" t="n">
+        <v>2</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>3</v>
+      </c>
+      <c r="N358" t="n">
+        <v>3</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['33', '36', '71']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>4</v>
+      </c>
+      <c r="R358" t="n">
+        <v>4</v>
+      </c>
+      <c r="S358" t="n">
+        <v>8</v>
+      </c>
+      <c r="T358" t="n">
+        <v>5</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V358" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X358" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK358"/>
+  <dimension ref="A1:BK365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT3" t="n">
         <v>1.22</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT6" t="n">
         <v>0.39</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT7" t="n">
         <v>0.78</v>
@@ -2324,7 +2324,7 @@
         <v>0.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.47</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.94</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT17" t="n">
         <v>1.28</v>
@@ -4151,7 +4151,7 @@
         <v>1.89</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT21" t="n">
         <v>0.89</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT22" t="n">
         <v>0.61</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>1.35</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU25" t="n">
         <v>1.23</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU27" t="n">
         <v>0.8</v>
@@ -6384,7 +6384,7 @@
         <v>1.39</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT30" t="n">
         <v>2.12</v>
@@ -6993,7 +6993,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT33" t="n">
         <v>0.9399999999999999</v>
@@ -7805,7 +7805,7 @@
         <v>1.89</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT40" t="n">
         <v>1.72</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT41" t="n">
         <v>1.11</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT43" t="n">
         <v>1.56</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>1.65</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9632,7 +9632,7 @@
         <v>1.22</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT46" t="n">
         <v>0.61</v>
@@ -10038,7 +10038,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU47" t="n">
         <v>2.47</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT50" t="n">
         <v>1.72</v>
@@ -10850,7 +10850,7 @@
         <v>0.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT53" t="n">
         <v>0.78</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT55" t="n">
         <v>1.28</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT58" t="n">
         <v>0.9399999999999999</v>
@@ -12880,7 +12880,7 @@
         <v>2.47</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT62" t="n">
         <v>1.28</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT64" t="n">
         <v>2.12</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9399999999999999</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT66" t="n">
         <v>0.78</v>
@@ -14098,7 +14098,7 @@
         <v>1.89</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU67" t="n">
         <v>1.9</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT70" t="n">
         <v>1.72</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU72" t="n">
         <v>0.84</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU73" t="n">
         <v>2.7</v>
@@ -15519,7 +15519,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15925,7 +15925,7 @@
         <v>2.72</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -16128,7 +16128,7 @@
         <v>1.22</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT79" t="n">
         <v>0.78</v>
@@ -16937,10 +16937,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU81" t="n">
         <v>2.41</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>1.89</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT91" t="n">
         <v>0.9399999999999999</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT92" t="n">
         <v>0.39</v>
@@ -19373,10 +19373,10 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19782,7 +19782,7 @@
         <v>1.22</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT98" t="n">
         <v>2.12</v>
@@ -20997,7 +20997,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT101" t="n">
         <v>0.78</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU103" t="n">
         <v>2.32</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT104" t="n">
         <v>0.67</v>
@@ -22012,10 +22012,10 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT108" t="n">
         <v>1.22</v>
@@ -22827,7 +22827,7 @@
         <v>2.72</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23030,7 +23030,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT112" t="n">
         <v>0.78</v>
@@ -23436,7 +23436,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU113" t="n">
         <v>1.75</v>
@@ -23842,7 +23842,7 @@
         <v>1.94</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU115" t="n">
         <v>1.42</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT116" t="n">
         <v>1.72</v>
@@ -24651,10 +24651,10 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU119" t="n">
         <v>2.23</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT121" t="n">
         <v>1.11</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT125" t="n">
         <v>0.5</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU130" t="n">
         <v>1.32</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -27496,7 +27496,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU133" t="n">
         <v>1.56</v>
@@ -27699,7 +27699,7 @@
         <v>1.94</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT137" t="n">
         <v>1.22</v>
@@ -28511,7 +28511,7 @@
         <v>2.72</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU138" t="n">
         <v>2.18</v>
@@ -28914,10 +28914,10 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU140" t="n">
         <v>1.09</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT141" t="n">
         <v>0.5</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT142" t="n">
         <v>0.89</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT143" t="n">
         <v>0.78</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT144" t="n">
         <v>1.12</v>
@@ -29929,10 +29929,10 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU145" t="n">
         <v>1.33</v>
@@ -30135,7 +30135,7 @@
         <v>1.76</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30335,10 +30335,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -31150,7 +31150,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU151" t="n">
         <v>1.7</v>
@@ -32571,7 +32571,7 @@
         <v>1.39</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU158" t="n">
         <v>1.55</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT159" t="n">
         <v>0.78</v>
@@ -32974,10 +32974,10 @@
         <v>1.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT161" t="n">
         <v>0.5</v>
@@ -33383,7 +33383,7 @@
         <v>2.72</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT163" t="n">
         <v>0.78</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT164" t="n">
         <v>0.89</v>
@@ -33992,7 +33992,7 @@
         <v>1.76</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU165" t="n">
         <v>1.92</v>
@@ -34192,10 +34192,10 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -34395,7 +34395,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT167" t="n">
         <v>1.12</v>
@@ -35210,7 +35210,7 @@
         <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU171" t="n">
         <v>1.52</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT178" t="n">
         <v>1.12</v>
@@ -37237,7 +37237,7 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT181" t="n">
         <v>0.78</v>
@@ -37846,7 +37846,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT184" t="n">
         <v>0.67</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT187" t="n">
         <v>1.28</v>
@@ -38658,10 +38658,10 @@
         <v>2.44</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -38864,7 +38864,7 @@
         <v>1.5</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -39267,7 +39267,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT191" t="n">
         <v>1.12</v>
@@ -39470,7 +39470,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT192" t="n">
         <v>0.39</v>
@@ -39676,7 +39676,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39879,7 +39879,7 @@
         <v>1.39</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU194" t="n">
         <v>1.62</v>
@@ -40082,7 +40082,7 @@
         <v>0.89</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU195" t="n">
         <v>1.4</v>
@@ -40691,7 +40691,7 @@
         <v>1.22</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU198" t="n">
         <v>1.59</v>
@@ -40894,7 +40894,7 @@
         <v>2.33</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU199" t="n">
         <v>2.35</v>
@@ -41094,7 +41094,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT200" t="n">
         <v>1.11</v>
@@ -41503,7 +41503,7 @@
         <v>1</v>
       </c>
       <c r="AT202" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41703,7 +41703,7 @@
         <v>0.89</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT203" t="n">
         <v>1.22</v>
@@ -42718,7 +42718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT208" t="n">
         <v>0.67</v>
@@ -42921,7 +42921,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT209" t="n">
         <v>0.5</v>
@@ -43124,7 +43124,7 @@
         <v>1.89</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT210" t="n">
         <v>2.12</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT213" t="n">
         <v>0.39</v>
@@ -43939,7 +43939,7 @@
         <v>1.5</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44142,7 +44142,7 @@
         <v>2.33</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU215" t="n">
         <v>2.38</v>
@@ -44748,7 +44748,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT218" t="n">
         <v>1.72</v>
@@ -44954,7 +44954,7 @@
         <v>1.22</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU219" t="n">
         <v>1.6</v>
@@ -45157,7 +45157,7 @@
         <v>2.72</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU220" t="n">
         <v>2.2</v>
@@ -45357,10 +45357,10 @@
         <v>0.7</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU221" t="n">
         <v>2.3</v>
@@ -45766,7 +45766,7 @@
         <v>1.94</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU223" t="n">
         <v>1.56</v>
@@ -46575,7 +46575,7 @@
         <v>1.82</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT227" t="n">
         <v>2.12</v>
@@ -46778,7 +46778,7 @@
         <v>0.45</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT228" t="n">
         <v>0.9399999999999999</v>
@@ -47184,7 +47184,7 @@
         <v>0.8</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT230" t="n">
         <v>1.22</v>
@@ -47590,7 +47590,7 @@
         <v>0.55</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT232" t="n">
         <v>0.67</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT233" t="n">
         <v>0.61</v>
@@ -48202,7 +48202,7 @@
         <v>0.89</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU235" t="n">
         <v>1.41</v>
@@ -48405,7 +48405,7 @@
         <v>1</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU236" t="n">
         <v>1.51</v>
@@ -48808,7 +48808,7 @@
         <v>1.75</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT238" t="n">
         <v>2.12</v>
@@ -49214,7 +49214,7 @@
         <v>1.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT240" t="n">
         <v>1.12</v>
@@ -49420,7 +49420,7 @@
         <v>2.33</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU241" t="n">
         <v>2.31</v>
@@ -49620,7 +49620,7 @@
         <v>0.83</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT242" t="n">
         <v>0.61</v>
@@ -50635,7 +50635,7 @@
         <v>1.5</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT247" t="n">
         <v>1.11</v>
@@ -51244,10 +51244,10 @@
         <v>0.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU250" t="n">
         <v>1.35</v>
@@ -51447,10 +51447,10 @@
         <v>1.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU251" t="n">
         <v>2.2</v>
@@ -51853,7 +51853,7 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT253" t="n">
         <v>1.22</v>
@@ -52059,7 +52059,7 @@
         <v>1</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU254" t="n">
         <v>1.55</v>
@@ -52262,7 +52262,7 @@
         <v>1.22</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU255" t="n">
         <v>1.64</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT256" t="n">
         <v>0.39</v>
@@ -53071,10 +53071,10 @@
         <v>2.38</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT259" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU259" t="n">
         <v>1.63</v>
@@ -53480,7 +53480,7 @@
         <v>1.39</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU261" t="n">
         <v>1.61</v>
@@ -53680,7 +53680,7 @@
         <v>0.77</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT262" t="n">
         <v>0.61</v>
@@ -53886,7 +53886,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -54289,7 +54289,7 @@
         <v>1.5</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT265" t="n">
         <v>1.72</v>
@@ -54492,7 +54492,7 @@
         <v>0.46</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT266" t="n">
         <v>0.5</v>
@@ -55307,7 +55307,7 @@
         <v>1.33</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU270" t="n">
         <v>1.53</v>
@@ -56116,7 +56116,7 @@
         <v>0.71</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT274" t="n">
         <v>0.61</v>
@@ -56319,7 +56319,7 @@
         <v>1.31</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT275" t="n">
         <v>1.28</v>
@@ -56728,7 +56728,7 @@
         <v>1.76</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU277" t="n">
         <v>1.94</v>
@@ -56931,7 +56931,7 @@
         <v>1.33</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU278" t="n">
         <v>1.54</v>
@@ -57334,10 +57334,10 @@
         <v>1.54</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU280" t="n">
         <v>1.98</v>
@@ -57743,7 +57743,7 @@
         <v>0.89</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU282" t="n">
         <v>1.37</v>
@@ -58146,10 +58146,10 @@
         <v>1.58</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU284" t="n">
         <v>1.24</v>
@@ -58758,7 +58758,7 @@
         <v>2.47</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU287" t="n">
         <v>1.74</v>
@@ -58961,7 +58961,7 @@
         <v>2.47</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU288" t="n">
         <v>1.73</v>
@@ -59364,7 +59364,7 @@
         <v>1.14</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT290" t="n">
         <v>1.12</v>
@@ -59567,10 +59567,10 @@
         <v>1.69</v>
       </c>
       <c r="AS291" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU291" t="n">
         <v>1.76</v>
@@ -60176,7 +60176,7 @@
         <v>0.46</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT294" t="n">
         <v>0.67</v>
@@ -60785,10 +60785,10 @@
         <v>2.43</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT297" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU297" t="n">
         <v>2.18</v>
@@ -61194,7 +61194,7 @@
         <v>1.33</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU299" t="n">
         <v>1.61</v>
@@ -61800,10 +61800,10 @@
         <v>1.07</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU302" t="n">
         <v>1.43</v>
@@ -62003,7 +62003,7 @@
         <v>0.73</v>
       </c>
       <c r="AS303" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT303" t="n">
         <v>0.9399999999999999</v>
@@ -62412,7 +62412,7 @@
         <v>1.39</v>
       </c>
       <c r="AT305" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU305" t="n">
         <v>1.55</v>
@@ -62612,10 +62612,10 @@
         <v>1.43</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU306" t="n">
         <v>1.32</v>
@@ -63221,7 +63221,7 @@
         <v>0.6</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT309" t="n">
         <v>0.5</v>
@@ -63424,7 +63424,7 @@
         <v>0.4</v>
       </c>
       <c r="AS310" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT310" t="n">
         <v>0.39</v>
@@ -63630,7 +63630,7 @@
         <v>1.5</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU311" t="n">
         <v>1.35</v>
@@ -63833,7 +63833,7 @@
         <v>1.89</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU312" t="n">
         <v>1.52</v>
@@ -64236,7 +64236,7 @@
         <v>0.64</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT314" t="n">
         <v>0.67</v>
@@ -64439,7 +64439,7 @@
         <v>1.33</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT315" t="n">
         <v>1.11</v>
@@ -64642,7 +64642,7 @@
         <v>1</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT316" t="n">
         <v>0.89</v>
@@ -65251,10 +65251,10 @@
         <v>1.67</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU319" t="n">
         <v>1.28</v>
@@ -65660,7 +65660,7 @@
         <v>1.33</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU321" t="n">
         <v>1.57</v>
@@ -65863,7 +65863,7 @@
         <v>2.72</v>
       </c>
       <c r="AT322" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU322" t="n">
         <v>2.11</v>
@@ -66469,10 +66469,10 @@
         <v>1.53</v>
       </c>
       <c r="AS325" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU325" t="n">
         <v>1.74</v>
@@ -67284,7 +67284,7 @@
         <v>2.47</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU329" t="n">
         <v>1.83</v>
@@ -67484,7 +67484,7 @@
         <v>0.88</v>
       </c>
       <c r="AS330" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT330" t="n">
         <v>0.78</v>
@@ -67687,7 +67687,7 @@
         <v>2</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT331" t="n">
         <v>2.12</v>
@@ -67890,7 +67890,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT332" t="n">
         <v>0.5</v>
@@ -68093,7 +68093,7 @@
         <v>1.25</v>
       </c>
       <c r="AS333" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT333" t="n">
         <v>1.11</v>
@@ -68299,7 +68299,7 @@
         <v>0.89</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU334" t="n">
         <v>1.4</v>
@@ -68702,7 +68702,7 @@
         <v>1.25</v>
       </c>
       <c r="AS336" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT336" t="n">
         <v>1.28</v>
@@ -69111,7 +69111,7 @@
         <v>1.76</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU338" t="n">
         <v>2.07</v>
@@ -69514,7 +69514,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS340" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AT340" t="n">
         <v>0.89</v>
@@ -69717,10 +69717,10 @@
         <v>1.29</v>
       </c>
       <c r="AS341" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU341" t="n">
         <v>1.42</v>
@@ -69920,7 +69920,7 @@
         <v>1</v>
       </c>
       <c r="AS342" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT342" t="n">
         <v>1.12</v>
@@ -70123,10 +70123,10 @@
         <v>1.12</v>
       </c>
       <c r="AS343" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AU343" t="n">
         <v>2.09</v>
@@ -70326,10 +70326,10 @@
         <v>2.12</v>
       </c>
       <c r="AS344" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT344" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU344" t="n">
         <v>1.98</v>
@@ -70532,7 +70532,7 @@
         <v>1.39</v>
       </c>
       <c r="AT345" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU345" t="n">
         <v>1.53</v>
@@ -70732,7 +70732,7 @@
         <v>0.82</v>
       </c>
       <c r="AS346" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT346" t="n">
         <v>0.78</v>
@@ -70938,7 +70938,7 @@
         <v>1.76</v>
       </c>
       <c r="AT347" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU347" t="n">
         <v>2.08</v>
@@ -71138,7 +71138,7 @@
         <v>0.82</v>
       </c>
       <c r="AS348" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT348" t="n">
         <v>0.78</v>
@@ -72968,7 +72968,7 @@
         <v>2.33</v>
       </c>
       <c r="AT357" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU357" t="n">
         <v>2.32</v>
@@ -73222,6 +73222,1427 @@
         <v>5</v>
       </c>
       <c r="BK358" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2782291</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45064.64583333334</v>
+      </c>
+      <c r="F359" t="n">
+        <v>25</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>2</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>2</v>
+      </c>
+      <c r="L359" t="n">
+        <v>4</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>5</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['22', '45+4', '89', '90+1']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>6</v>
+      </c>
+      <c r="R359" t="n">
+        <v>1</v>
+      </c>
+      <c r="S359" t="n">
+        <v>7</v>
+      </c>
+      <c r="T359" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V359" t="n">
+        <v>4</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X359" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2782405</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45066.35416666666</v>
+      </c>
+      <c r="F360" t="n">
+        <v>37</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="n">
+        <v>3</v>
+      </c>
+      <c r="N360" t="n">
+        <v>4</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['50', '62', '88']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>8</v>
+      </c>
+      <c r="R360" t="n">
+        <v>2</v>
+      </c>
+      <c r="S360" t="n">
+        <v>10</v>
+      </c>
+      <c r="T360" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V360" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X360" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2782407</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F361" t="n">
+        <v>37</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>1</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="n">
+        <v>1</v>
+      </c>
+      <c r="N361" t="n">
+        <v>2</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>1</v>
+      </c>
+      <c r="R361" t="n">
+        <v>7</v>
+      </c>
+      <c r="S361" t="n">
+        <v>8</v>
+      </c>
+      <c r="T361" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V361" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X361" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2782401</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1</v>
+      </c>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="n">
+        <v>1</v>
+      </c>
+      <c r="N362" t="n">
+        <v>2</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>9</v>
+      </c>
+      <c r="R362" t="n">
+        <v>3</v>
+      </c>
+      <c r="S362" t="n">
+        <v>12</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V362" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X362" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2782398</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1</v>
+      </c>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+      <c r="N363" t="n">
+        <v>1</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>3</v>
+      </c>
+      <c r="R363" t="n">
+        <v>6</v>
+      </c>
+      <c r="S363" t="n">
+        <v>9</v>
+      </c>
+      <c r="T363" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V363" t="n">
+        <v>2</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X363" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2782400</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F364" t="n">
+        <v>37</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>1</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1</v>
+      </c>
+      <c r="K364" t="n">
+        <v>2</v>
+      </c>
+      <c r="L364" t="n">
+        <v>2</v>
+      </c>
+      <c r="M364" t="n">
+        <v>2</v>
+      </c>
+      <c r="N364" t="n">
+        <v>4</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>['45+5', '61']</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>['34', '83']</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>7</v>
+      </c>
+      <c r="R364" t="n">
+        <v>4</v>
+      </c>
+      <c r="S364" t="n">
+        <v>11</v>
+      </c>
+      <c r="T364" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U364" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V364" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X364" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2782404</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45066.5625</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>1</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>3</v>
+      </c>
+      <c r="R365" t="n">
+        <v>6</v>
+      </c>
+      <c r="S365" t="n">
+        <v>9</v>
+      </c>
+      <c r="T365" t="n">
+        <v>5</v>
+      </c>
+      <c r="U365" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V365" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X365" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK365" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK365"/>
+  <dimension ref="A1:BK368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.95</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT11" t="n">
         <v>2.12</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT14" t="n">
         <v>1.72</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT15" t="n">
         <v>0.9399999999999999</v>
@@ -3745,7 +3745,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.89</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -6181,7 +6181,7 @@
         <v>1.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT29" t="n">
         <v>1.56</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT35" t="n">
         <v>0.89</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -9429,7 +9429,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT48" t="n">
         <v>0.39</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT49" t="n">
         <v>1.11</v>
@@ -11256,7 +11256,7 @@
         <v>1.58</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -12068,7 +12068,7 @@
         <v>1.89</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU57" t="n">
         <v>1.94</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT60" t="n">
         <v>0.78</v>
@@ -13286,7 +13286,7 @@
         <v>1.94</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU63" t="n">
         <v>1.22</v>
@@ -14910,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT75" t="n">
         <v>0.61</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT76" t="n">
         <v>1.42</v>
@@ -16734,10 +16734,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU80" t="n">
         <v>2.39</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT84" t="n">
         <v>1.28</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -19579,7 +19579,7 @@
         <v>1.94</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT99" t="n">
         <v>0.39</v>
@@ -21000,7 +21000,7 @@
         <v>1.16</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU101" t="n">
         <v>0.9399999999999999</v>
@@ -21203,7 +21203,7 @@
         <v>1.89</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU102" t="n">
         <v>1.5</v>
@@ -22218,7 +22218,7 @@
         <v>0.89</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT117" t="n">
         <v>0.9399999999999999</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25260,10 +25260,10 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU122" t="n">
         <v>2.02</v>
@@ -25872,7 +25872,7 @@
         <v>2.32</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT128" t="n">
         <v>1.28</v>
@@ -28102,7 +28102,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT136" t="n">
         <v>0.89</v>
@@ -28508,7 +28508,7 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT138" t="n">
         <v>1.16</v>
@@ -28711,7 +28711,7 @@
         <v>0.86</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT139" t="n">
         <v>0.78</v>
@@ -29120,7 +29120,7 @@
         <v>1.95</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU141" t="n">
         <v>1.99</v>
@@ -29526,7 +29526,7 @@
         <v>2.32</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU143" t="n">
         <v>2.44</v>
@@ -29729,7 +29729,7 @@
         <v>2.11</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT146" t="n">
         <v>1.21</v>
@@ -32568,7 +32568,7 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT158" t="n">
         <v>1.16</v>
@@ -33180,7 +33180,7 @@
         <v>2.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT162" t="n">
         <v>0.79</v>
@@ -33586,7 +33586,7 @@
         <v>1.53</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU163" t="n">
         <v>1.79</v>
@@ -33989,7 +33989,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT165" t="n">
         <v>2.05</v>
@@ -34398,7 +34398,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -36631,7 +36631,7 @@
         <v>1.53</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU178" t="n">
         <v>1.71</v>
@@ -36834,7 +36834,7 @@
         <v>1.94</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37443,7 +37443,7 @@
         <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT183" t="n">
         <v>1.22</v>
@@ -39064,7 +39064,7 @@
         <v>1.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT190" t="n">
         <v>1.11</v>
@@ -39270,7 +39270,7 @@
         <v>2.32</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU191" t="n">
         <v>2.37</v>
@@ -39876,7 +39876,7 @@
         <v>0.78</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT194" t="n">
         <v>0.79</v>
@@ -40485,7 +40485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT197" t="n">
         <v>0.61</v>
@@ -41906,7 +41906,7 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT204" t="n">
         <v>0.9399999999999999</v>
@@ -42315,7 +42315,7 @@
         <v>1.89</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -42924,7 +42924,7 @@
         <v>1.58</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU209" t="n">
         <v>1.47</v>
@@ -43330,7 +43330,7 @@
         <v>2.47</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU211" t="n">
         <v>1.86</v>
@@ -43530,10 +43530,10 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU212" t="n">
         <v>1.6</v>
@@ -45154,7 +45154,7 @@
         <v>1.1</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT220" t="n">
         <v>1.21</v>
@@ -46169,7 +46169,7 @@
         <v>1.27</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT225" t="n">
         <v>1.28</v>
@@ -46375,7 +46375,7 @@
         <v>1</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46984,7 +46984,7 @@
         <v>1.33</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU229" t="n">
         <v>1.52</v>
@@ -47999,7 +47999,7 @@
         <v>1.22</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU234" t="n">
         <v>1.63</v>
@@ -48605,7 +48605,7 @@
         <v>0.55</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT237" t="n">
         <v>0.39</v>
@@ -49217,7 +49217,7 @@
         <v>1.95</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU240" t="n">
         <v>1.82</v>
@@ -49823,7 +49823,7 @@
         <v>1.64</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT243" t="n">
         <v>1.72</v>
@@ -50026,7 +50026,7 @@
         <v>0.5</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT244" t="n">
         <v>0.67</v>
@@ -50841,7 +50841,7 @@
         <v>1.33</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU248" t="n">
         <v>1.52</v>
@@ -52668,7 +52668,7 @@
         <v>0.89</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU257" t="n">
         <v>1.34</v>
@@ -53277,7 +53277,7 @@
         <v>2.47</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU260" t="n">
         <v>1.8</v>
@@ -53477,7 +53477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT261" t="n">
         <v>1.21</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT264" t="n">
         <v>0.89</v>
@@ -54495,7 +54495,7 @@
         <v>1.58</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU266" t="n">
         <v>1.36</v>
@@ -55710,7 +55710,7 @@
         <v>0.92</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT272" t="n">
         <v>1.22</v>
@@ -56525,7 +56525,7 @@
         <v>2.33</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU276" t="n">
         <v>2.34</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT277" t="n">
         <v>1.16</v>
@@ -57131,10 +57131,10 @@
         <v>0.93</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU279" t="n">
         <v>1.62</v>
@@ -58552,7 +58552,7 @@
         <v>1.62</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT286" t="n">
         <v>1.72</v>
@@ -59367,7 +59367,7 @@
         <v>1.58</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU290" t="n">
         <v>1.43</v>
@@ -62206,7 +62206,7 @@
         <v>0.87</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT304" t="n">
         <v>0.78</v>
@@ -62409,7 +62409,7 @@
         <v>2.33</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT305" t="n">
         <v>2.05</v>
@@ -63021,7 +63021,7 @@
         <v>2.33</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU308" t="n">
         <v>2.29</v>
@@ -63224,7 +63224,7 @@
         <v>1.53</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU309" t="n">
         <v>1.63</v>
@@ -65454,7 +65454,7 @@
         <v>1</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT320" t="n">
         <v>1.22</v>
@@ -65860,7 +65860,7 @@
         <v>2.25</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT322" t="n">
         <v>2.05</v>
@@ -67078,7 +67078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT328" t="n">
         <v>0.61</v>
@@ -67487,7 +67487,7 @@
         <v>2.11</v>
       </c>
       <c r="AT330" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU330" t="n">
         <v>1.98</v>
@@ -67893,7 +67893,7 @@
         <v>1.16</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU332" t="n">
         <v>1.29</v>
@@ -68502,7 +68502,7 @@
         <v>2.33</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU335" t="n">
         <v>2.33</v>
@@ -68905,7 +68905,7 @@
         <v>0.75</v>
       </c>
       <c r="AS337" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT337" t="n">
         <v>0.67</v>
@@ -69108,7 +69108,7 @@
         <v>1.5</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT338" t="n">
         <v>1.42</v>
@@ -69311,10 +69311,10 @@
         <v>0.53</v>
       </c>
       <c r="AS339" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT339" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU339" t="n">
         <v>2.08</v>
@@ -69923,7 +69923,7 @@
         <v>1.16</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU342" t="n">
         <v>1.31</v>
@@ -70529,7 +70529,7 @@
         <v>1.41</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT345" t="n">
         <v>1.42</v>
@@ -70935,7 +70935,7 @@
         <v>0.65</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT347" t="n">
         <v>0.79</v>
@@ -71141,7 +71141,7 @@
         <v>1.58</v>
       </c>
       <c r="AT348" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU348" t="n">
         <v>1.28</v>
@@ -74644,6 +74644,615 @@
       </c>
       <c r="BK365" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2782406</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45067.39583333334</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>1</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1</v>
+      </c>
+      <c r="K366" t="n">
+        <v>2</v>
+      </c>
+      <c r="L366" t="n">
+        <v>3</v>
+      </c>
+      <c r="M366" t="n">
+        <v>1</v>
+      </c>
+      <c r="N366" t="n">
+        <v>4</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>['31', '72', '90+4']</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>9</v>
+      </c>
+      <c r="R366" t="n">
+        <v>5</v>
+      </c>
+      <c r="S366" t="n">
+        <v>14</v>
+      </c>
+      <c r="T366" t="n">
+        <v>3</v>
+      </c>
+      <c r="U366" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V366" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X366" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2782399</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F367" t="n">
+        <v>37</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>2</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>2</v>
+      </c>
+      <c r="L367" t="n">
+        <v>3</v>
+      </c>
+      <c r="M367" t="n">
+        <v>1</v>
+      </c>
+      <c r="N367" t="n">
+        <v>4</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['29', '40', '69']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>4</v>
+      </c>
+      <c r="R367" t="n">
+        <v>3</v>
+      </c>
+      <c r="S367" t="n">
+        <v>7</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U367" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V367" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X367" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2782402</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>1</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>1</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>5</v>
+      </c>
+      <c r="R368" t="n">
+        <v>2</v>
+      </c>
+      <c r="S368" t="n">
+        <v>7</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U368" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V368" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X368" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK368"/>
+  <dimension ref="A1:BK370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT6" t="n">
         <v>0.39</v>
@@ -2730,7 +2730,7 @@
         <v>1.47</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT14" t="n">
         <v>1.72</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -7399,7 +7399,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT37" t="n">
         <v>0.47</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12474,7 +12474,7 @@
         <v>1.94</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -13489,7 +13489,7 @@
         <v>1.58</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9399999999999999</v>
@@ -13895,7 +13895,7 @@
         <v>1.95</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -16534,7 +16534,7 @@
         <v>1.16</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU79" t="n">
         <v>0.8100000000000001</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT81" t="n">
         <v>1.16</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -20391,7 +20391,7 @@
         <v>2.32</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT99" t="n">
         <v>0.39</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT103" t="n">
         <v>0.79</v>
@@ -23233,7 +23233,7 @@
         <v>1.58</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU112" t="n">
         <v>1.12</v>
@@ -24451,7 +24451,7 @@
         <v>0.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -24651,7 +24651,7 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT119" t="n">
         <v>1.21</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT122" t="n">
         <v>1.06</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -28714,7 +28714,7 @@
         <v>1.47</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT144" t="n">
         <v>1.06</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT146" t="n">
         <v>1.21</v>
@@ -32368,7 +32368,7 @@
         <v>1.22</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -32774,7 +32774,7 @@
         <v>2.32</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU159" t="n">
         <v>2.38</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT161" t="n">
         <v>0.47</v>
@@ -33989,7 +33989,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT165" t="n">
         <v>2.05</v>
@@ -36428,7 +36428,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -37037,7 +37037,7 @@
         <v>2.47</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU180" t="n">
         <v>1.98</v>
@@ -37240,7 +37240,7 @@
         <v>1.58</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU181" t="n">
         <v>1.47</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT183" t="n">
         <v>1.22</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT187" t="n">
         <v>1.28</v>
@@ -41906,7 +41906,7 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT204" t="n">
         <v>0.9399999999999999</v>
@@ -42518,7 +42518,7 @@
         <v>1.94</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU207" t="n">
         <v>1.48</v>
@@ -42718,7 +42718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT208" t="n">
         <v>0.67</v>
@@ -43127,7 +43127,7 @@
         <v>1.95</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU210" t="n">
         <v>1.9</v>
@@ -45563,7 +45563,7 @@
         <v>2.33</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU222" t="n">
         <v>2.42</v>
@@ -46169,7 +46169,7 @@
         <v>1.27</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT225" t="n">
         <v>1.28</v>
@@ -46578,7 +46578,7 @@
         <v>1.58</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU227" t="n">
         <v>1.42</v>
@@ -47184,7 +47184,7 @@
         <v>0.8</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT230" t="n">
         <v>1.22</v>
@@ -47390,7 +47390,7 @@
         <v>2.47</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU231" t="n">
         <v>1.93</v>
@@ -48811,7 +48811,7 @@
         <v>1.16</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU238" t="n">
         <v>1.22</v>
@@ -50026,7 +50026,7 @@
         <v>0.5</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT244" t="n">
         <v>0.67</v>
@@ -51044,7 +51044,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU249" t="n">
         <v>1.6</v>
@@ -52871,7 +52871,7 @@
         <v>1.5</v>
       </c>
       <c r="AT258" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU258" t="n">
         <v>1.37</v>
@@ -53680,7 +53680,7 @@
         <v>0.77</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT262" t="n">
         <v>0.61</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT264" t="n">
         <v>0.89</v>
@@ -54901,7 +54901,7 @@
         <v>1.89</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU268" t="n">
         <v>1.52</v>
@@ -55916,7 +55916,7 @@
         <v>1.5</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU273" t="n">
         <v>1.28</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT277" t="n">
         <v>1.16</v>
@@ -57334,7 +57334,7 @@
         <v>1.54</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT280" t="n">
         <v>1.42</v>
@@ -60382,7 +60382,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT295" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU295" t="n">
         <v>1.55</v>
@@ -62209,7 +62209,7 @@
         <v>2.74</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU304" t="n">
         <v>2.15</v>
@@ -64439,7 +64439,7 @@
         <v>1.33</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT315" t="n">
         <v>1.11</v>
@@ -65051,7 +65051,7 @@
         <v>1.22</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU318" t="n">
         <v>1.63</v>
@@ -67078,7 +67078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT328" t="n">
         <v>0.61</v>
@@ -67484,7 +67484,7 @@
         <v>0.88</v>
       </c>
       <c r="AS330" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT330" t="n">
         <v>0.74</v>
@@ -67690,7 +67690,7 @@
         <v>1.53</v>
       </c>
       <c r="AT331" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU331" t="n">
         <v>1.63</v>
@@ -69108,7 +69108,7 @@
         <v>1.5</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT338" t="n">
         <v>1.42</v>
@@ -70326,7 +70326,7 @@
         <v>2.12</v>
       </c>
       <c r="AS344" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT344" t="n">
         <v>2.05</v>
@@ -70735,7 +70735,7 @@
         <v>1.53</v>
       </c>
       <c r="AT346" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU346" t="n">
         <v>1.57</v>
@@ -70935,7 +70935,7 @@
         <v>0.65</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT347" t="n">
         <v>0.79</v>
@@ -72562,7 +72562,7 @@
         <v>1</v>
       </c>
       <c r="AT355" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AU355" t="n">
         <v>1.59</v>
@@ -73371,7 +73371,7 @@
         <v>1.65</v>
       </c>
       <c r="AS359" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT359" t="n">
         <v>1.56</v>
@@ -74995,7 +74995,7 @@
         <v>0.78</v>
       </c>
       <c r="AS367" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT367" t="n">
         <v>0.74</v>
@@ -75253,6 +75253,412 @@
       </c>
       <c r="BK368" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2782403</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>45068.66666666666</v>
+      </c>
+      <c r="F369" t="n">
+        <v>37</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>0</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q369" t="n">
+        <v>12</v>
+      </c>
+      <c r="R369" t="n">
+        <v>1</v>
+      </c>
+      <c r="S369" t="n">
+        <v>13</v>
+      </c>
+      <c r="T369" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V369" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W369" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X369" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ369" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA369" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB369" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC369" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD369" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE369" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF369" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG369" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH369" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ369" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK369" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2782352</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>45070.66666666666</v>
+      </c>
+      <c r="F370" t="n">
+        <v>32</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>1</v>
+      </c>
+      <c r="J370" t="n">
+        <v>1</v>
+      </c>
+      <c r="K370" t="n">
+        <v>2</v>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="n">
+        <v>1</v>
+      </c>
+      <c r="N370" t="n">
+        <v>2</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q370" t="n">
+        <v>5</v>
+      </c>
+      <c r="R370" t="n">
+        <v>1</v>
+      </c>
+      <c r="S370" t="n">
+        <v>6</v>
+      </c>
+      <c r="T370" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U370" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V370" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W370" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X370" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ370" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA370" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB370" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC370" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD370" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE370" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF370" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK370" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK370"/>
+  <dimension ref="A1:BK381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT2" t="n">
         <v>2.05</v>
@@ -1106,7 +1106,7 @@
         <v>1.53</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.05</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.16</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.47</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.79</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT13" t="n">
         <v>0.79</v>
@@ -3339,7 +3339,7 @@
         <v>1.79</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.74</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT16" t="n">
         <v>0.47</v>
@@ -3948,7 +3948,7 @@
         <v>1.58</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT18" t="n">
         <v>1.42</v>
@@ -4354,7 +4354,7 @@
         <v>1.58</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.95</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT23" t="n">
         <v>1.21</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU24" t="n">
         <v>1.26</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>0.74</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -6384,7 +6384,7 @@
         <v>1.47</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6587,7 +6587,7 @@
         <v>2.05</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT32" t="n">
         <v>1.42</v>
@@ -7196,7 +7196,7 @@
         <v>2.32</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU33" t="n">
         <v>2.56</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT34" t="n">
         <v>0.79</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT36" t="n">
         <v>0.79</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8617,7 +8617,7 @@
         <v>1.58</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -8820,7 +8820,7 @@
         <v>1.58</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT42" t="n">
         <v>1.16</v>
@@ -9226,7 +9226,7 @@
         <v>1.53</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT45" t="n">
         <v>0.79</v>
@@ -9835,7 +9835,7 @@
         <v>1.16</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU46" t="n">
         <v>0.85</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT47" t="n">
         <v>1.21</v>
@@ -10241,7 +10241,7 @@
         <v>2.74</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU48" t="n">
         <v>2.4</v>
@@ -10444,7 +10444,7 @@
         <v>1.47</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10647,7 +10647,7 @@
         <v>2.32</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.42</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11456,10 +11456,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11662,7 +11662,7 @@
         <v>1.95</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT57" t="n">
         <v>0.47</v>
@@ -12271,7 +12271,7 @@
         <v>1.58</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU58" t="n">
         <v>1.78</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT61" t="n">
         <v>2.05</v>
@@ -13083,7 +13083,7 @@
         <v>1.58</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.74</v>
@@ -13489,7 +13489,7 @@
         <v>1.58</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13692,7 +13692,7 @@
         <v>2.05</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT67" t="n">
         <v>2.05</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14501,10 +14501,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14707,7 +14707,7 @@
         <v>1.53</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15316,7 +15316,7 @@
         <v>2.32</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU73" t="n">
         <v>2.7</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT74" t="n">
         <v>0.79</v>
@@ -15722,7 +15722,7 @@
         <v>1.47</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT77" t="n">
         <v>1.21</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -17140,10 +17140,10 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU82" t="n">
         <v>1.51</v>
@@ -17346,7 +17346,7 @@
         <v>1.79</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17549,7 +17549,7 @@
         <v>1.47</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU84" t="n">
         <v>1.39</v>
@@ -17749,7 +17749,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT85" t="n">
         <v>0.47</v>
@@ -17952,10 +17952,10 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT87" t="n">
         <v>1.42</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>0.89</v>
@@ -18970,7 +18970,7 @@
         <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19173,7 +19173,7 @@
         <v>1.58</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19576,10 +19576,10 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT95" t="n">
         <v>2.05</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20185,10 +20185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20391,7 +20391,7 @@
         <v>2.32</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20594,7 +20594,7 @@
         <v>1.79</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.5</v>
@@ -21609,7 +21609,7 @@
         <v>2.32</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU104" t="n">
         <v>2.4</v>
@@ -21809,10 +21809,10 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT107" t="n">
         <v>0.47</v>
@@ -22421,7 +22421,7 @@
         <v>1.58</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT109" t="n">
         <v>0.89</v>
@@ -22827,7 +22827,7 @@
         <v>2.74</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT111" t="n">
         <v>1.42</v>
@@ -23433,7 +23433,7 @@
         <v>2.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT113" t="n">
         <v>2.05</v>
@@ -23636,10 +23636,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.16</v>
@@ -24045,7 +24045,7 @@
         <v>1.95</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24248,7 +24248,7 @@
         <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,10 +24448,10 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT120" t="n">
         <v>0.74</v>
@@ -25060,7 +25060,7 @@
         <v>1.16</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU121" t="n">
         <v>1.1</v>
@@ -25263,7 +25263,7 @@
         <v>1.79</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>2.02</v>
@@ -25463,10 +25463,10 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -26072,10 +26072,10 @@
         <v>0.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26481,7 +26481,7 @@
         <v>2.74</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU128" t="n">
         <v>2.22</v>
@@ -26681,10 +26681,10 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -26887,7 +26887,7 @@
         <v>1.58</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU130" t="n">
         <v>1.32</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT132" t="n">
         <v>0.79</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT133" t="n">
         <v>2.05</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>1.42</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.95</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -29729,7 +29729,7 @@
         <v>2.05</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -30538,10 +30538,10 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30741,10 +30741,10 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -30944,10 +30944,10 @@
         <v>0.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31147,10 +31147,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU151" t="n">
         <v>1.7</v>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31756,10 +31756,10 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -31959,10 +31959,10 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,10 +32162,10 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32365,10 +32365,10 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -34398,7 +34398,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -34598,10 +34598,10 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU169" t="n">
         <v>1.35</v>
@@ -35004,10 +35004,10 @@
         <v>1.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35207,10 +35207,10 @@
         <v>1.63</v>
       </c>
       <c r="AS171" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU171" t="n">
         <v>1.52</v>
@@ -35410,10 +35410,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -35613,10 +35613,10 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -35816,10 +35816,10 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36019,10 +36019,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36222,10 +36222,10 @@
         <v>0.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -36425,10 +36425,10 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36631,7 +36631,7 @@
         <v>1.53</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.71</v>
@@ -36831,7 +36831,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT179" t="n">
         <v>0.47</v>
@@ -37034,10 +37034,10 @@
         <v>2.13</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU180" t="n">
         <v>1.98</v>
@@ -37440,7 +37440,7 @@
         <v>0.67</v>
       </c>
       <c r="AS182" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT182" t="n">
         <v>0.74</v>
@@ -37646,7 +37646,7 @@
         <v>1.79</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -37849,7 +37849,7 @@
         <v>1.58</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38049,10 +38049,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU185" t="n">
         <v>1.45</v>
@@ -38252,7 +38252,7 @@
         <v>1.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT186" t="n">
         <v>0.89</v>
@@ -38458,7 +38458,7 @@
         <v>2.05</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU187" t="n">
         <v>2.08</v>
@@ -38861,7 +38861,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT189" t="n">
         <v>1.42</v>
@@ -39067,7 +39067,7 @@
         <v>2.74</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -39270,7 +39270,7 @@
         <v>2.32</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU191" t="n">
         <v>2.37</v>
@@ -39473,7 +39473,7 @@
         <v>1.16</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU192" t="n">
         <v>1.16</v>
@@ -39673,7 +39673,7 @@
         <v>0.89</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT193" t="n">
         <v>1.21</v>
@@ -40079,10 +40079,10 @@
         <v>1.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU195" t="n">
         <v>1.4</v>
@@ -40282,10 +40282,10 @@
         <v>1.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU196" t="n">
         <v>1.53</v>
@@ -40488,7 +40488,7 @@
         <v>2.74</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU197" t="n">
         <v>2.22</v>
@@ -40688,7 +40688,7 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT198" t="n">
         <v>1.16</v>
@@ -40891,7 +40891,7 @@
         <v>1.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT199" t="n">
         <v>1.42</v>
@@ -41097,7 +41097,7 @@
         <v>1.53</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -41297,10 +41297,10 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41500,7 +41500,7 @@
         <v>2.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT202" t="n">
         <v>2.05</v>
@@ -41706,7 +41706,7 @@
         <v>1.58</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU203" t="n">
         <v>1.35</v>
@@ -41909,7 +41909,7 @@
         <v>1.79</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU204" t="n">
         <v>1.86</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT205" t="n">
         <v>0.89</v>
@@ -42312,7 +42312,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT206" t="n">
         <v>0.74</v>
@@ -42515,7 +42515,7 @@
         <v>0.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT207" t="n">
         <v>0.79</v>
@@ -42721,7 +42721,7 @@
         <v>2.05</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU208" t="n">
         <v>2.09</v>
@@ -43127,7 +43127,7 @@
         <v>1.95</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU210" t="n">
         <v>1.9</v>
@@ -43327,7 +43327,7 @@
         <v>0.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT211" t="n">
         <v>0.47</v>
@@ -43533,7 +43533,7 @@
         <v>1.47</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU212" t="n">
         <v>1.6</v>
@@ -43736,7 +43736,7 @@
         <v>1.53</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU213" t="n">
         <v>1.63</v>
@@ -43936,10 +43936,10 @@
         <v>1.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44139,7 +44139,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT215" t="n">
         <v>1.16</v>
@@ -44342,10 +44342,10 @@
         <v>1.64</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU216" t="n">
         <v>1.35</v>
@@ -44545,10 +44545,10 @@
         <v>0.6</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -44751,7 +44751,7 @@
         <v>1.16</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU218" t="n">
         <v>1.2</v>
@@ -44951,7 +44951,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT219" t="n">
         <v>1.42</v>
@@ -45560,10 +45560,10 @@
         <v>1.7</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU222" t="n">
         <v>2.42</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT223" t="n">
         <v>2.05</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT224" t="n">
         <v>0.89</v>
@@ -46172,7 +46172,7 @@
         <v>1.79</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU225" t="n">
         <v>1.92</v>
@@ -46372,7 +46372,7 @@
         <v>0.55</v>
       </c>
       <c r="AS226" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT226" t="n">
         <v>0.47</v>
@@ -46578,7 +46578,7 @@
         <v>1.58</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU227" t="n">
         <v>1.42</v>
@@ -46781,7 +46781,7 @@
         <v>1.58</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU228" t="n">
         <v>1.37</v>
@@ -46981,7 +46981,7 @@
         <v>0.82</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT229" t="n">
         <v>0.74</v>
@@ -47187,7 +47187,7 @@
         <v>2.05</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU230" t="n">
         <v>2.02</v>
@@ -47387,7 +47387,7 @@
         <v>1.09</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT231" t="n">
         <v>0.79</v>
@@ -47593,7 +47593,7 @@
         <v>1.95</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU232" t="n">
         <v>1.84</v>
@@ -47796,7 +47796,7 @@
         <v>1.53</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU233" t="n">
         <v>1.64</v>
@@ -47996,7 +47996,7 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT234" t="n">
         <v>0.74</v>
@@ -48199,7 +48199,7 @@
         <v>2.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT235" t="n">
         <v>2.05</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT236" t="n">
         <v>1.21</v>
@@ -48608,7 +48608,7 @@
         <v>1.47</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU237" t="n">
         <v>1.57</v>
@@ -48811,7 +48811,7 @@
         <v>1.16</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU238" t="n">
         <v>1.22</v>
@@ -49011,10 +49011,10 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU239" t="n">
         <v>1.42</v>
@@ -49217,7 +49217,7 @@
         <v>1.95</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU240" t="n">
         <v>1.82</v>
@@ -49417,7 +49417,7 @@
         <v>0.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT241" t="n">
         <v>0.79</v>
@@ -49623,7 +49623,7 @@
         <v>2.32</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU242" t="n">
         <v>2.23</v>
@@ -49826,7 +49826,7 @@
         <v>2.74</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU243" t="n">
         <v>2.21</v>
@@ -50029,7 +50029,7 @@
         <v>1.79</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU244" t="n">
         <v>1.94</v>
@@ -50229,10 +50229,10 @@
         <v>0.67</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU245" t="n">
         <v>2.28</v>
@@ -50432,7 +50432,7 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT246" t="n">
         <v>0.89</v>
@@ -50638,7 +50638,7 @@
         <v>1.58</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU247" t="n">
         <v>1.38</v>
@@ -50838,7 +50838,7 @@
         <v>0.5</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT248" t="n">
         <v>0.47</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT249" t="n">
         <v>0.79</v>
@@ -51650,10 +51650,10 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU252" t="n">
         <v>1.49</v>
@@ -51856,7 +51856,7 @@
         <v>1.16</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU253" t="n">
         <v>1.24</v>
@@ -52056,7 +52056,7 @@
         <v>1.09</v>
       </c>
       <c r="AS254" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT254" t="n">
         <v>1.16</v>
@@ -52259,10 +52259,10 @@
         <v>1.64</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU255" t="n">
         <v>1.64</v>
@@ -52465,7 +52465,7 @@
         <v>1.95</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU256" t="n">
         <v>1.77</v>
@@ -52665,10 +52665,10 @@
         <v>1</v>
       </c>
       <c r="AS257" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU257" t="n">
         <v>1.34</v>
@@ -52868,10 +52868,10 @@
         <v>1.85</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT258" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU258" t="n">
         <v>1.37</v>
@@ -53274,7 +53274,7 @@
         <v>0.92</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT260" t="n">
         <v>0.74</v>
@@ -53683,7 +53683,7 @@
         <v>2.05</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -53883,7 +53883,7 @@
         <v>1</v>
       </c>
       <c r="AS263" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT263" t="n">
         <v>1.16</v>
@@ -54292,7 +54292,7 @@
         <v>1.58</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -54695,10 +54695,10 @@
         <v>1.38</v>
       </c>
       <c r="AS267" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU267" t="n">
         <v>1.51</v>
@@ -54898,7 +54898,7 @@
         <v>0.92</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT268" t="n">
         <v>0.79</v>
@@ -55101,10 +55101,10 @@
         <v>0.62</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU269" t="n">
         <v>1.48</v>
@@ -55304,7 +55304,7 @@
         <v>0.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT270" t="n">
         <v>0.79</v>
@@ -55507,7 +55507,7 @@
         <v>0.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT271" t="n">
         <v>0.89</v>
@@ -55713,7 +55713,7 @@
         <v>2.74</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU272" t="n">
         <v>2.13</v>
@@ -55913,7 +55913,7 @@
         <v>0.93</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT273" t="n">
         <v>0.79</v>
@@ -56119,7 +56119,7 @@
         <v>1.58</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU274" t="n">
         <v>1.29</v>
@@ -56322,7 +56322,7 @@
         <v>1.16</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU275" t="n">
         <v>1.21</v>
@@ -56522,7 +56522,7 @@
         <v>0.64</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT276" t="n">
         <v>0.47</v>
@@ -56928,7 +56928,7 @@
         <v>1.15</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT278" t="n">
         <v>1.21</v>
@@ -57537,10 +57537,10 @@
         <v>1.36</v>
       </c>
       <c r="AS281" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU281" t="n">
         <v>1.55</v>
@@ -57740,7 +57740,7 @@
         <v>1.29</v>
       </c>
       <c r="AS282" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT282" t="n">
         <v>1.21</v>
@@ -57943,10 +57943,10 @@
         <v>0.46</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU283" t="n">
         <v>1.62</v>
@@ -58149,7 +58149,7 @@
         <v>1.16</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU284" t="n">
         <v>1.24</v>
@@ -58349,10 +58349,10 @@
         <v>0.86</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU285" t="n">
         <v>1.63</v>
@@ -58555,7 +58555,7 @@
         <v>1.47</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU286" t="n">
         <v>1.59</v>
@@ -58755,7 +58755,7 @@
         <v>1.14</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT287" t="n">
         <v>1.16</v>
@@ -58958,7 +58958,7 @@
         <v>0.64</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT288" t="n">
         <v>0.79</v>
@@ -59161,10 +59161,10 @@
         <v>0.43</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU289" t="n">
         <v>1.55</v>
@@ -59367,7 +59367,7 @@
         <v>1.58</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU290" t="n">
         <v>1.43</v>
@@ -59570,7 +59570,7 @@
         <v>1.95</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU291" t="n">
         <v>1.76</v>
@@ -59770,10 +59770,10 @@
         <v>1.71</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU292" t="n">
         <v>1.51</v>
@@ -59973,10 +59973,10 @@
         <v>0.57</v>
       </c>
       <c r="AS293" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT293" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AT293" t="n">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AU293" t="n">
         <v>1.37</v>
@@ -60179,7 +60179,7 @@
         <v>1.53</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60379,10 +60379,10 @@
         <v>1.93</v>
       </c>
       <c r="AS295" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT295" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU295" t="n">
         <v>1.55</v>
@@ -60582,7 +60582,7 @@
         <v>0.71</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT296" t="n">
         <v>0.89</v>
@@ -60988,10 +60988,10 @@
         <v>1.8</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU298" t="n">
         <v>1.52</v>
@@ -61191,10 +61191,10 @@
         <v>1.57</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU299" t="n">
         <v>1.61</v>
@@ -61394,10 +61394,10 @@
         <v>1.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -61597,7 +61597,7 @@
         <v>0.87</v>
       </c>
       <c r="AS301" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT301" t="n">
         <v>0.89</v>
@@ -62006,7 +62006,7 @@
         <v>1.95</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU303" t="n">
         <v>1.71</v>
@@ -62815,10 +62815,10 @@
         <v>0.87</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU307" t="n">
         <v>1.66</v>
@@ -63018,7 +63018,7 @@
         <v>0.87</v>
       </c>
       <c r="AS308" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT308" t="n">
         <v>0.74</v>
@@ -63427,7 +63427,7 @@
         <v>2.32</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU310" t="n">
         <v>2.17</v>
@@ -63627,7 +63627,7 @@
         <v>0.6</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT311" t="n">
         <v>0.79</v>
@@ -63830,7 +63830,7 @@
         <v>1.4</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT312" t="n">
         <v>1.21</v>
@@ -64033,10 +64033,10 @@
         <v>0.73</v>
       </c>
       <c r="AS313" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT313" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU313" t="n">
         <v>1.39</v>
@@ -64239,7 +64239,7 @@
         <v>1.16</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU314" t="n">
         <v>1.26</v>
@@ -64442,7 +64442,7 @@
         <v>2.05</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU315" t="n">
         <v>1.97</v>
@@ -64845,10 +64845,10 @@
         <v>1.33</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU317" t="n">
         <v>1.52</v>
@@ -65048,7 +65048,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT318" t="n">
         <v>0.79</v>
@@ -65254,7 +65254,7 @@
         <v>1.58</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU319" t="n">
         <v>1.28</v>
@@ -65457,7 +65457,7 @@
         <v>1.47</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU320" t="n">
         <v>1.56</v>
@@ -65657,7 +65657,7 @@
         <v>1</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT321" t="n">
         <v>1.16</v>
@@ -66063,10 +66063,10 @@
         <v>0.88</v>
       </c>
       <c r="AS323" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT323" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU323" t="n">
         <v>1.48</v>
@@ -66266,10 +66266,10 @@
         <v>1.69</v>
       </c>
       <c r="AS324" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU324" t="n">
         <v>1.6</v>
@@ -66672,10 +66672,10 @@
         <v>0.8</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU326" t="n">
         <v>1.34</v>
@@ -66875,10 +66875,10 @@
         <v>0.38</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU327" t="n">
         <v>1.52</v>
@@ -67081,7 +67081,7 @@
         <v>1.79</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU328" t="n">
         <v>2.03</v>
@@ -67281,7 +67281,7 @@
         <v>1.38</v>
       </c>
       <c r="AS329" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT329" t="n">
         <v>1.21</v>
@@ -67690,7 +67690,7 @@
         <v>1.53</v>
       </c>
       <c r="AT331" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU331" t="n">
         <v>1.63</v>
@@ -68096,7 +68096,7 @@
         <v>2.32</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU333" t="n">
         <v>2.15</v>
@@ -68296,7 +68296,7 @@
         <v>0.63</v>
       </c>
       <c r="AS334" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT334" t="n">
         <v>0.79</v>
@@ -68499,10 +68499,10 @@
         <v>1.07</v>
       </c>
       <c r="AS335" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU335" t="n">
         <v>2.33</v>
@@ -68705,7 +68705,7 @@
         <v>2.32</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU336" t="n">
         <v>2.1</v>
@@ -68908,7 +68908,7 @@
         <v>2.74</v>
       </c>
       <c r="AT337" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU337" t="n">
         <v>2.09</v>
@@ -69923,7 +69923,7 @@
         <v>1.16</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU342" t="n">
         <v>1.31</v>
@@ -71341,10 +71341,10 @@
         <v>1.76</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT349" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU349" t="n">
         <v>1.61</v>
@@ -71544,10 +71544,10 @@
         <v>1.18</v>
       </c>
       <c r="AS350" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AT350" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU350" t="n">
         <v>1.46</v>
@@ -71747,10 +71747,10 @@
         <v>0.35</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT351" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU351" t="n">
         <v>1.59</v>
@@ -71950,10 +71950,10 @@
         <v>1.18</v>
       </c>
       <c r="AS352" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT352" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU352" t="n">
         <v>1.5</v>
@@ -72153,10 +72153,10 @@
         <v>1</v>
       </c>
       <c r="AS353" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT353" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU353" t="n">
         <v>1.36</v>
@@ -72356,10 +72356,10 @@
         <v>0.65</v>
       </c>
       <c r="AS354" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="AT354" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU354" t="n">
         <v>1.82</v>
@@ -72559,10 +72559,10 @@
         <v>2.06</v>
       </c>
       <c r="AS355" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT355" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU355" t="n">
         <v>1.59</v>
@@ -72762,10 +72762,10 @@
         <v>0.71</v>
       </c>
       <c r="AS356" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT356" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU356" t="n">
         <v>1.56</v>
@@ -72965,10 +72965,10 @@
         <v>1.56</v>
       </c>
       <c r="AS357" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT357" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU357" t="n">
         <v>2.32</v>
@@ -73168,10 +73168,10 @@
         <v>1.12</v>
       </c>
       <c r="AS358" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT358" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU358" t="n">
         <v>1.41</v>
@@ -73374,7 +73374,7 @@
         <v>2.05</v>
       </c>
       <c r="AT359" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU359" t="n">
         <v>1.96</v>
@@ -75201,7 +75201,7 @@
         <v>2.74</v>
       </c>
       <c r="AT368" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU368" t="n">
         <v>2.1</v>
@@ -75607,7 +75607,7 @@
         <v>1.79</v>
       </c>
       <c r="AT370" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AU370" t="n">
         <v>2.17</v>
@@ -75659,6 +75659,2239 @@
       </c>
       <c r="BK370" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2782357</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>45071.66666666666</v>
+      </c>
+      <c r="F371" t="n">
+        <v>32</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>2</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>2</v>
+      </c>
+      <c r="L371" t="n">
+        <v>4</v>
+      </c>
+      <c r="M371" t="n">
+        <v>1</v>
+      </c>
+      <c r="N371" t="n">
+        <v>5</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>['6', '45+5', '73', '78']</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q371" t="n">
+        <v>3</v>
+      </c>
+      <c r="R371" t="n">
+        <v>4</v>
+      </c>
+      <c r="S371" t="n">
+        <v>7</v>
+      </c>
+      <c r="T371" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U371" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V371" t="n">
+        <v>5</v>
+      </c>
+      <c r="W371" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X371" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ371" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH371" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK371" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2782408</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F372" t="n">
+        <v>38</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>3</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>3</v>
+      </c>
+      <c r="L372" t="n">
+        <v>5</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>5</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>['11', '14', '27', '58', '78']</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q372" t="n">
+        <v>8</v>
+      </c>
+      <c r="R372" t="n">
+        <v>4</v>
+      </c>
+      <c r="S372" t="n">
+        <v>12</v>
+      </c>
+      <c r="T372" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U372" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V372" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W372" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X372" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB372" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC372" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD372" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE372" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF372" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG372" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH372" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI372" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ372" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK372" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL372" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM372" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN372" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO372" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP372" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ372" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR372" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS372" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AT372" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU372" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV372" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW372" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX372" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY372" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ372" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA372" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB372" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC372" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD372" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE372" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF372" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG372" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH372" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI372" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ372" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK372" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2782417</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F373" t="n">
+        <v>38</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>2</v>
+      </c>
+      <c r="J373" t="n">
+        <v>2</v>
+      </c>
+      <c r="K373" t="n">
+        <v>4</v>
+      </c>
+      <c r="L373" t="n">
+        <v>4</v>
+      </c>
+      <c r="M373" t="n">
+        <v>4</v>
+      </c>
+      <c r="N373" t="n">
+        <v>8</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>['19', '28', '47', '64']</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>['10', '14', '72', '73']</t>
+        </is>
+      </c>
+      <c r="Q373" t="n">
+        <v>2</v>
+      </c>
+      <c r="R373" t="n">
+        <v>9</v>
+      </c>
+      <c r="S373" t="n">
+        <v>11</v>
+      </c>
+      <c r="T373" t="n">
+        <v>6</v>
+      </c>
+      <c r="U373" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V373" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W373" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X373" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB373" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC373" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD373" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE373" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF373" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG373" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH373" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI373" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ373" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK373" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL373" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM373" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN373" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AO373" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP373" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ373" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR373" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS373" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT373" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU373" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV373" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW373" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX373" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY373" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ373" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA373" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB373" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC373" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD373" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE373" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF373" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG373" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH373" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI373" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ373" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK373" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2782415</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F374" t="n">
+        <v>38</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>1</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
+      <c r="L374" t="n">
+        <v>2</v>
+      </c>
+      <c r="M374" t="n">
+        <v>1</v>
+      </c>
+      <c r="N374" t="n">
+        <v>3</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>['34', '62']</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q374" t="n">
+        <v>3</v>
+      </c>
+      <c r="R374" t="n">
+        <v>5</v>
+      </c>
+      <c r="S374" t="n">
+        <v>8</v>
+      </c>
+      <c r="T374" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U374" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V374" t="n">
+        <v>4</v>
+      </c>
+      <c r="W374" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X374" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD374" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE374" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF374" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG374" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH374" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI374" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ374" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK374" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL374" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM374" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN374" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO374" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP374" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ374" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR374" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS374" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT374" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU374" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV374" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW374" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX374" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY374" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ374" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA374" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB374" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC374" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD374" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE374" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF374" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG374" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH374" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI374" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ374" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK374" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2782414</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F375" t="n">
+        <v>38</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1</v>
+      </c>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="n">
+        <v>4</v>
+      </c>
+      <c r="N375" t="n">
+        <v>5</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>['2', '47', '69', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q375" t="n">
+        <v>12</v>
+      </c>
+      <c r="R375" t="n">
+        <v>3</v>
+      </c>
+      <c r="S375" t="n">
+        <v>15</v>
+      </c>
+      <c r="T375" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U375" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V375" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W375" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X375" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD375" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE375" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF375" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG375" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH375" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI375" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ375" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK375" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL375" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM375" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN375" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO375" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP375" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ375" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR375" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS375" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT375" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU375" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV375" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW375" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX375" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY375" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ375" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA375" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB375" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC375" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD375" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE375" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF375" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG375" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH375" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI375" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ375" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK375" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2782413</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F376" t="n">
+        <v>38</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>1</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q376" t="n">
+        <v>9</v>
+      </c>
+      <c r="R376" t="n">
+        <v>3</v>
+      </c>
+      <c r="S376" t="n">
+        <v>12</v>
+      </c>
+      <c r="T376" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U376" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V376" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W376" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X376" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG376" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH376" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ376" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK376" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL376" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN376" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO376" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP376" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ376" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR376" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS376" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT376" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU376" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW376" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX376" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY376" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ376" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA376" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB376" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC376" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD376" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE376" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF376" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG376" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH376" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI376" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ376" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK376" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2782412</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F377" t="n">
+        <v>38</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
+      <c r="J377" t="n">
+        <v>1</v>
+      </c>
+      <c r="K377" t="n">
+        <v>1</v>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="n">
+        <v>1</v>
+      </c>
+      <c r="N377" t="n">
+        <v>2</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q377" t="n">
+        <v>5</v>
+      </c>
+      <c r="R377" t="n">
+        <v>4</v>
+      </c>
+      <c r="S377" t="n">
+        <v>9</v>
+      </c>
+      <c r="T377" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U377" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V377" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W377" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X377" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB377" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC377" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD377" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE377" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF377" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG377" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH377" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI377" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ377" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK377" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL377" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN377" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO377" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP377" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ377" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR377" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AS377" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT377" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU377" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV377" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW377" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX377" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY377" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ377" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA377" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB377" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC377" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD377" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE377" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF377" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG377" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH377" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI377" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ377" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK377" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2782410</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F378" t="n">
+        <v>38</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>1</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q378" t="n">
+        <v>3</v>
+      </c>
+      <c r="R378" t="n">
+        <v>4</v>
+      </c>
+      <c r="S378" t="n">
+        <v>7</v>
+      </c>
+      <c r="T378" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U378" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V378" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W378" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X378" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD378" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE378" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF378" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG378" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH378" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ378" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK378" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL378" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN378" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO378" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP378" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ378" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR378" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS378" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT378" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU378" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV378" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW378" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ378" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA378" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB378" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC378" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD378" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE378" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF378" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG378" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH378" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI378" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ378" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK378" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2782409</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E379" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F379" t="n">
+        <v>38</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>2</v>
+      </c>
+      <c r="J379" t="n">
+        <v>1</v>
+      </c>
+      <c r="K379" t="n">
+        <v>3</v>
+      </c>
+      <c r="L379" t="n">
+        <v>2</v>
+      </c>
+      <c r="M379" t="n">
+        <v>1</v>
+      </c>
+      <c r="N379" t="n">
+        <v>3</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>['8', '26']</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q379" t="n">
+        <v>3</v>
+      </c>
+      <c r="R379" t="n">
+        <v>3</v>
+      </c>
+      <c r="S379" t="n">
+        <v>6</v>
+      </c>
+      <c r="T379" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U379" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V379" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W379" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X379" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD379" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE379" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF379" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG379" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH379" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI379" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ379" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK379" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL379" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM379" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN379" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO379" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP379" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ379" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR379" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS379" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT379" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU379" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV379" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW379" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX379" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY379" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ379" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA379" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB379" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC379" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD379" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE379" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF379" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG379" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH379" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI379" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ379" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK379" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2782416</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E380" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F380" t="n">
+        <v>38</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>1</v>
+      </c>
+      <c r="J380" t="n">
+        <v>1</v>
+      </c>
+      <c r="K380" t="n">
+        <v>2</v>
+      </c>
+      <c r="L380" t="n">
+        <v>2</v>
+      </c>
+      <c r="M380" t="n">
+        <v>1</v>
+      </c>
+      <c r="N380" t="n">
+        <v>3</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>['39', '55']</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q380" t="n">
+        <v>5</v>
+      </c>
+      <c r="R380" t="n">
+        <v>4</v>
+      </c>
+      <c r="S380" t="n">
+        <v>9</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U380" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V380" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W380" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X380" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB380" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC380" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD380" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE380" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF380" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG380" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH380" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI380" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ380" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK380" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL380" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM380" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN380" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO380" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP380" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ380" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR380" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS380" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT380" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU380" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV380" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW380" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX380" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY380" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ380" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA380" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB380" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC380" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD380" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE380" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF380" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG380" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH380" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI380" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ380" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK380" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2782411</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E381" s="2" t="n">
+        <v>45074.52083333334</v>
+      </c>
+      <c r="F381" t="n">
+        <v>38</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>1</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1</v>
+      </c>
+      <c r="K381" t="n">
+        <v>2</v>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="n">
+        <v>1</v>
+      </c>
+      <c r="N381" t="n">
+        <v>2</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q381" t="n">
+        <v>10</v>
+      </c>
+      <c r="R381" t="n">
+        <v>3</v>
+      </c>
+      <c r="S381" t="n">
+        <v>13</v>
+      </c>
+      <c r="T381" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U381" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V381" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W381" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X381" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG381" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH381" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ381" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK381" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL381" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN381" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO381" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP381" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ381" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR381" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS381" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT381" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AU381" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW381" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY381" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ381" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA381" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB381" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC381" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD381" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE381" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF381" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG381" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH381" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI381" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ381" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK381" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
